--- a/total_res/PT4_output.xlsx
+++ b/total_res/PT4_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M775"/>
+  <dimension ref="A1:N775"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>real_quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>percent</t>
         </is>
       </c>
@@ -538,10 +543,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -595,6 +609,9 @@
         <v>-0.3600000000000136</v>
       </c>
       <c r="M3" t="n">
+        <v>-0.4352882000000136</v>
+      </c>
+      <c r="N3" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -650,6 +667,9 @@
         <v>0.5999999999999659</v>
       </c>
       <c r="M4" t="n">
+        <v>0.5247845999999659</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -705,6 +725,9 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="M5" t="n">
+        <v>0.4747183000000114</v>
+      </c>
+      <c r="N5" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -760,6 +783,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M6" t="n">
+        <v>-0.07463979999999204</v>
+      </c>
+      <c r="N6" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -815,6 +841,9 @@
         <v>-0.02000000000001023</v>
       </c>
       <c r="M7" t="n">
+        <v>-0.05461640000001022</v>
+      </c>
+      <c r="N7" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -870,6 +899,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M8" t="n">
+        <v>-0.1346969999999943</v>
+      </c>
+      <c r="N8" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -925,6 +957,9 @@
         <v>-0.25</v>
       </c>
       <c r="M9" t="n">
+        <v>-0.2845787</v>
+      </c>
+      <c r="N9" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -980,6 +1015,9 @@
         <v>-0.3299999999999841</v>
       </c>
       <c r="M10" t="n">
+        <v>-0.3645214999999841</v>
+      </c>
+      <c r="N10" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1035,6 +1073,9 @@
         <v>-0.210000000000008</v>
       </c>
       <c r="M11" t="n">
+        <v>-0.244451300000008</v>
+      </c>
+      <c r="N11" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1090,6 +1131,9 @@
         <v>2.5</v>
       </c>
       <c r="M12" t="n">
+        <v>0.7470150000000002</v>
+      </c>
+      <c r="N12" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1145,6 +1189,9 @@
         <v>18.5</v>
       </c>
       <c r="M13" t="n">
+        <v>16.744285</v>
+      </c>
+      <c r="N13" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1200,6 +1247,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M14" t="n">
+        <v>0.2663600000000909</v>
+      </c>
+      <c r="N14" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1255,6 +1305,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M15" t="n">
+        <v>-0.3336269999999318</v>
+      </c>
+      <c r="N15" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -1310,6 +1363,9 @@
         <v>-0.05000000000006821</v>
       </c>
       <c r="M16" t="n">
+        <v>-0.1833605000000682</v>
+      </c>
+      <c r="N16" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1357,6 +1413,9 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
+        <v>-0.131768</v>
+      </c>
+      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1412,6 +1471,9 @@
         <v>-0.3100000000000023</v>
       </c>
       <c r="M18" t="n">
+        <v>-0.3706437000000022</v>
+      </c>
+      <c r="N18" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1467,6 +1529,9 @@
         <v>-0.3100000000000023</v>
       </c>
       <c r="M19" t="n">
+        <v>-0.3707347000000023</v>
+      </c>
+      <c r="N19" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1522,6 +1587,9 @@
         <v>2.189999999999998</v>
       </c>
       <c r="M20" t="n">
+        <v>2.129517499999998</v>
+      </c>
+      <c r="N20" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -1577,6 +1645,9 @@
         <v>-1.800000000000182</v>
       </c>
       <c r="M21" t="n">
+        <v>-2.071570000000182</v>
+      </c>
+      <c r="N21" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1632,6 +1703,9 @@
         <v>7.400000000000091</v>
       </c>
       <c r="M22" t="n">
+        <v>7.130250000000091</v>
+      </c>
+      <c r="N22" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -1687,6 +1761,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M23" t="n">
+        <v>-0.3336154000000114</v>
+      </c>
+      <c r="N23" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -1742,6 +1819,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M24" t="n">
+        <v>-0.1736102000000148</v>
+      </c>
+      <c r="N24" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1797,6 +1877,9 @@
         <v>0.2800000000000011</v>
       </c>
       <c r="M25" t="n">
+        <v>0.2463196000000011</v>
+      </c>
+      <c r="N25" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1852,6 +1935,9 @@
         <v>1.180000000000007</v>
       </c>
       <c r="M26" t="n">
+        <v>1.146369000000007</v>
+      </c>
+      <c r="N26" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -1907,6 +1993,9 @@
         <v>0.3799999999999955</v>
       </c>
       <c r="M27" t="n">
+        <v>0.3465301999999955</v>
+      </c>
+      <c r="N27" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -1962,6 +2051,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M28" t="n">
+        <v>-0.3031417999999909</v>
+      </c>
+      <c r="N28" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -2017,6 +2109,9 @@
         <v>0.4800000000000182</v>
       </c>
       <c r="M29" t="n">
+        <v>0.4368244000000182</v>
+      </c>
+      <c r="N29" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2072,6 +2167,9 @@
         <v>-0.2399999999999807</v>
       </c>
       <c r="M30" t="n">
+        <v>-0.2832951999999807</v>
+      </c>
+      <c r="N30" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2127,6 +2225,9 @@
         <v>0.5800000000000125</v>
       </c>
       <c r="M31" t="n">
+        <v>0.5367386000000125</v>
+      </c>
+      <c r="N31" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -2182,6 +2283,9 @@
         <v>0.2450000000000045</v>
       </c>
       <c r="M32" t="n">
+        <v>0.2317809500000045</v>
+      </c>
+      <c r="N32" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2237,6 +2341,9 @@
         <v>-0.09500000000000597</v>
       </c>
       <c r="M33" t="n">
+        <v>-0.108220350000006</v>
+      </c>
+      <c r="N33" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -2292,6 +2399,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M34" t="n">
+        <v>0.001790050000000572</v>
+      </c>
+      <c r="N34" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2347,6 +2457,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M35" t="n">
+        <v>-0.06320149999999716</v>
+      </c>
+      <c r="N35" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2402,6 +2515,9 @@
         <v>8.799999999999955</v>
       </c>
       <c r="M36" t="n">
+        <v>8.431631999999954</v>
+      </c>
+      <c r="N36" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -2457,6 +2573,9 @@
         <v>-2.599999999999909</v>
       </c>
       <c r="M37" t="n">
+        <v>-2.969121999999909</v>
+      </c>
+      <c r="N37" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2512,6 +2631,9 @@
         <v>2.799999999999955</v>
       </c>
       <c r="M38" t="n">
+        <v>2.431007999999955</v>
+      </c>
+      <c r="N38" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2567,6 +2689,9 @@
         <v>-3</v>
       </c>
       <c r="M39" t="n">
+        <v>-3.367874</v>
+      </c>
+      <c r="N39" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -2622,6 +2747,9 @@
         <v>-1.400000000000091</v>
       </c>
       <c r="M40" t="n">
+        <v>-1.767510000000091</v>
+      </c>
+      <c r="N40" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2669,6 +2797,9 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
+        <v>-0.367484</v>
+      </c>
+      <c r="N41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2724,6 +2855,9 @@
         <v>0.3699999999999974</v>
       </c>
       <c r="M42" t="n">
+        <v>0.3541412999999974</v>
+      </c>
+      <c r="N42" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -2779,6 +2913,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M43" t="n">
+        <v>-0.07594320000000226</v>
+      </c>
+      <c r="N43" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -2826,6 +2963,9 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>-0.0157768</v>
+      </c>
+      <c r="N44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2881,6 +3021,9 @@
         <v>-0.1499999999999986</v>
       </c>
       <c r="M45" t="n">
+        <v>-0.1652112999999986</v>
+      </c>
+      <c r="N45" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -2936,6 +3079,9 @@
         <v>0.3400000000000034</v>
       </c>
       <c r="M46" t="n">
+        <v>0.3248160000000034</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -2991,6 +3137,9 @@
         <v>0.6200000000000045</v>
       </c>
       <c r="M47" t="n">
+        <v>0.5823182000000044</v>
+      </c>
+      <c r="N47" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -3046,6 +3195,9 @@
         <v>-0.4800000000000182</v>
       </c>
       <c r="M48" t="n">
+        <v>-0.5175388000000182</v>
+      </c>
+      <c r="N48" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -3101,6 +3253,9 @@
         <v>-0.06800000000000139</v>
       </c>
       <c r="M49" t="n">
+        <v>-0.07354866000000139</v>
+      </c>
+      <c r="N49" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -3156,6 +3311,9 @@
         <v>0.01800000000000068</v>
       </c>
       <c r="M50" t="n">
+        <v>0.01246590000000068</v>
+      </c>
+      <c r="N50" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3211,6 +3369,9 @@
         <v>-0.06400000000000006</v>
       </c>
       <c r="M51" t="n">
+        <v>-0.06952760000000005</v>
+      </c>
+      <c r="N51" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3266,6 +3427,9 @@
         <v>1.350000000000023</v>
       </c>
       <c r="M52" t="n">
+        <v>1.172491500000023</v>
+      </c>
+      <c r="N52" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3313,6 +3477,9 @@
         <v>0</v>
       </c>
       <c r="M53" t="n">
+        <v>-0.176592</v>
+      </c>
+      <c r="N53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3368,6 +3535,9 @@
         <v>-0.0002000000000000057</v>
       </c>
       <c r="M54" t="n">
+        <v>-0.0002258700000000057</v>
+      </c>
+      <c r="N54" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3423,6 +3593,9 @@
         <v>-0.0002399999999999902</v>
       </c>
       <c r="M55" t="n">
+        <v>-0.0002660259999999902</v>
+      </c>
+      <c r="N55" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -3478,6 +3651,9 @@
         <v>9.999999999998899e-05</v>
       </c>
       <c r="M56" t="n">
+        <v>7.399219999998899e-05</v>
+      </c>
+      <c r="N56" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3533,6 +3709,9 @@
         <v>3.999999999999837e-05</v>
       </c>
       <c r="M57" t="n">
+        <v>1.397919999999837e-05</v>
+      </c>
+      <c r="N57" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3588,6 +3767,9 @@
         <v>-0.0002800000000000025</v>
       </c>
       <c r="M58" t="n">
+        <v>-0.0003061040000000026</v>
+      </c>
+      <c r="N58" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -3643,6 +3825,9 @@
         <v>-6.000000000000449e-05</v>
       </c>
       <c r="M59" t="n">
+        <v>-8.602860000000448e-05</v>
+      </c>
+      <c r="N59" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3698,6 +3883,9 @@
         <v>-0.0001999999999999919</v>
       </c>
       <c r="M60" t="n">
+        <v>-0.0002259219999999919</v>
+      </c>
+      <c r="N60" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -3753,6 +3941,9 @@
         <v>-0.001700000000000035</v>
       </c>
       <c r="M61" t="n">
+        <v>-0.001856949000000035</v>
+      </c>
+      <c r="N61" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -3808,6 +3999,9 @@
         <v>0.000299999999999967</v>
       </c>
       <c r="M62" t="n">
+        <v>0.000143128999999967</v>
+      </c>
+      <c r="N62" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3863,6 +4057,9 @@
         <v>-0.001600000000000046</v>
       </c>
       <c r="M63" t="n">
+        <v>-0.001757768000000046</v>
+      </c>
+      <c r="N63" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -3918,6 +4115,9 @@
         <v>0.004099999999999993</v>
       </c>
       <c r="M64" t="n">
+        <v>0.003942556999999993</v>
+      </c>
+      <c r="N64" t="n">
         <v>0.67</v>
       </c>
     </row>
@@ -3973,6 +4173,9 @@
         <v>-6.75</v>
       </c>
       <c r="M65" t="n">
+        <v>-7.5391195</v>
+      </c>
+      <c r="N65" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -4028,6 +4231,9 @@
         <v>5.349999999999909</v>
       </c>
       <c r="M66" t="n">
+        <v>4.562609499999909</v>
+      </c>
+      <c r="N66" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -4083,6 +4289,9 @@
         <v>-1.300000000000182</v>
       </c>
       <c r="M67" t="n">
+        <v>-2.086591000000182</v>
+      </c>
+      <c r="N67" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4138,6 +4347,9 @@
         <v>-2.199999999999818</v>
       </c>
       <c r="M68" t="n">
+        <v>-2.988254999999818</v>
+      </c>
+      <c r="N68" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4193,6 +4405,9 @@
         <v>-1.099999999999909</v>
       </c>
       <c r="M69" t="n">
+        <v>-1.887682999999909</v>
+      </c>
+      <c r="N69" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4248,6 +4463,9 @@
         <v>-1.299999999999727</v>
       </c>
       <c r="M70" t="n">
+        <v>-2.086837999999727</v>
+      </c>
+      <c r="N70" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -4303,6 +4521,9 @@
         <v>-2.25</v>
       </c>
       <c r="M71" t="n">
+        <v>-3.0362465</v>
+      </c>
+      <c r="N71" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4358,6 +4579,9 @@
         <v>6.650000000000091</v>
       </c>
       <c r="M72" t="n">
+        <v>5.864754500000091</v>
+      </c>
+      <c r="N72" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4413,6 +4637,9 @@
         <v>-1.900000000000091</v>
       </c>
       <c r="M73" t="n">
+        <v>-2.685421000000091</v>
+      </c>
+      <c r="N73" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -4468,6 +4695,9 @@
         <v>4.200000000000273</v>
       </c>
       <c r="M74" t="n">
+        <v>3.414878000000273</v>
+      </c>
+      <c r="N74" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -4523,6 +4753,9 @@
         <v>-2</v>
       </c>
       <c r="M75" t="n">
+        <v>-2.786019</v>
+      </c>
+      <c r="N75" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -4578,6 +4811,9 @@
         <v>3.349999999999909</v>
       </c>
       <c r="M76" t="n">
+        <v>2.563766499999909</v>
+      </c>
+      <c r="N76" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -4633,6 +4869,9 @@
         <v>-0.1999999999998181</v>
       </c>
       <c r="M77" t="n">
+        <v>-0.981689999999818</v>
+      </c>
+      <c r="N77" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -4688,6 +4927,9 @@
         <v>3.549999999999727</v>
       </c>
       <c r="M78" t="n">
+        <v>2.768459499999727</v>
+      </c>
+      <c r="N78" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4743,6 +4985,9 @@
         <v>-0.7999999999997272</v>
       </c>
       <c r="M79" t="n">
+        <v>-1.580376999999727</v>
+      </c>
+      <c r="N79" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4798,6 +5043,9 @@
         <v>-2.800000000000182</v>
       </c>
       <c r="M80" t="n">
+        <v>-3.579701000000182</v>
+      </c>
+      <c r="N80" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -4853,6 +5101,9 @@
         <v>-4.600000000000364</v>
       </c>
       <c r="M81" t="n">
+        <v>-5.378635000000363</v>
+      </c>
+      <c r="N81" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -4908,6 +5159,9 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="M82" t="n">
+        <v>-0.05402005000000171</v>
+      </c>
+      <c r="N82" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -4963,6 +5217,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M83" t="n">
+        <v>0.09096889999999432</v>
+      </c>
+      <c r="N83" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -5018,6 +5275,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M84" t="n">
+        <v>-0.1090349999999943</v>
+      </c>
+      <c r="N84" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -5073,6 +5333,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M85" t="n">
+        <v>-0.01902329999999801</v>
+      </c>
+      <c r="N85" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -5128,6 +5391,9 @@
         <v>0.3449999999999989</v>
       </c>
       <c r="M86" t="n">
+        <v>0.3359617499999989</v>
+      </c>
+      <c r="N86" t="n">
         <v>0.9900000000000001</v>
       </c>
     </row>
@@ -5175,6 +5441,9 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
+        <v>-0.008954399999999998</v>
+      </c>
+      <c r="N87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5220,10 +5489,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5277,6 +5555,9 @@
         <v>-0.7400000000000091</v>
       </c>
       <c r="M89" t="n">
+        <v>-0.8143236000000091</v>
+      </c>
+      <c r="N89" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -5332,6 +5613,9 @@
         <v>-0.9900000000000091</v>
       </c>
       <c r="M90" t="n">
+        <v>-1.064688900000009</v>
+      </c>
+      <c r="N90" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -5387,6 +5671,9 @@
         <v>-0.5500000000000114</v>
       </c>
       <c r="M91" t="n">
+        <v>-0.6241845000000115</v>
+      </c>
+      <c r="N91" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -5442,6 +5729,9 @@
         <v>-0.1299999999999955</v>
       </c>
       <c r="M92" t="n">
+        <v>-0.2041870999999955</v>
+      </c>
+      <c r="N92" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -5497,6 +5787,9 @@
         <v>-0.1399999999999864</v>
       </c>
       <c r="M93" t="n">
+        <v>-0.2142091999999864</v>
+      </c>
+      <c r="N93" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -5552,6 +5845,9 @@
         <v>0.03000000000002956</v>
       </c>
       <c r="M94" t="n">
+        <v>-0.04422349999997043</v>
+      </c>
+      <c r="N94" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -5607,6 +5903,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M95" t="n">
+        <v>-0.01433919999999773</v>
+      </c>
+      <c r="N95" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5662,6 +5961,9 @@
         <v>0.3300000000000125</v>
       </c>
       <c r="M96" t="n">
+        <v>0.2956501000000125</v>
+      </c>
+      <c r="N96" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -5717,6 +6019,9 @@
         <v>-0.4800000000000182</v>
       </c>
       <c r="M97" t="n">
+        <v>-0.5140288000000182</v>
+      </c>
+      <c r="N97" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -5772,6 +6077,9 @@
         <v>-0.4099999999999966</v>
       </c>
       <c r="M98" t="n">
+        <v>-0.4441990999999966</v>
+      </c>
+      <c r="N98" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -5827,6 +6135,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M99" t="n">
+        <v>-0.09400020000000227</v>
+      </c>
+      <c r="N99" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -5882,6 +6193,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M100" t="n">
+        <v>-0.0441314999999909</v>
+      </c>
+      <c r="N100" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -5929,6 +6243,9 @@
         <v>0</v>
       </c>
       <c r="M101" t="n">
+        <v>-0.03412759999999999</v>
+      </c>
+      <c r="N101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5984,6 +6301,9 @@
         <v>66</v>
       </c>
       <c r="M102" t="n">
+        <v>64.26385000000001</v>
+      </c>
+      <c r="N102" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -6039,6 +6359,9 @@
         <v>-10</v>
       </c>
       <c r="M103" t="n">
+        <v>-11.72432</v>
+      </c>
+      <c r="N103" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -6094,6 +6417,9 @@
         <v>-18</v>
       </c>
       <c r="M104" t="n">
+        <v>-19.72822</v>
+      </c>
+      <c r="N104" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -6149,6 +6475,9 @@
         <v>9.5</v>
       </c>
       <c r="M105" t="n">
+        <v>7.768985</v>
+      </c>
+      <c r="N105" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -6204,6 +6533,9 @@
         <v>-32</v>
       </c>
       <c r="M106" t="n">
+        <v>-33.71548</v>
+      </c>
+      <c r="N106" t="n">
         <v>-0.48</v>
       </c>
     </row>
@@ -6259,6 +6591,9 @@
         <v>-5</v>
       </c>
       <c r="M107" t="n">
+        <v>-6.71522</v>
+      </c>
+      <c r="N107" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -6314,6 +6649,9 @@
         <v>8.5</v>
       </c>
       <c r="M108" t="n">
+        <v>6.785495</v>
+      </c>
+      <c r="N108" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -6369,6 +6707,9 @@
         <v>4.5</v>
       </c>
       <c r="M109" t="n">
+        <v>2.784065</v>
+      </c>
+      <c r="N109" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -6424,6 +6765,9 @@
         <v>0</v>
       </c>
       <c r="M110" t="n">
+        <v>-1.71652</v>
+      </c>
+      <c r="N110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6479,6 +6823,9 @@
         <v>4</v>
       </c>
       <c r="M111" t="n">
+        <v>2.28387</v>
+      </c>
+      <c r="N111" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -6534,6 +6881,9 @@
         <v>-0.25</v>
       </c>
       <c r="M112" t="n">
+        <v>-0.3819175</v>
+      </c>
+      <c r="N112" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -6589,6 +6939,9 @@
         <v>1.550000000000011</v>
       </c>
       <c r="M113" t="n">
+        <v>1.418329500000011</v>
+      </c>
+      <c r="N113" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -6644,6 +6997,9 @@
         <v>-0.8500000000000227</v>
       </c>
       <c r="M114" t="n">
+        <v>-0.9818655000000227</v>
+      </c>
+      <c r="N114" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -6699,6 +7055,9 @@
         <v>-0.4000000000000341</v>
       </c>
       <c r="M115" t="n">
+        <v>-0.5316640000000341</v>
+      </c>
+      <c r="N115" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -6754,6 +7113,9 @@
         <v>1.900000000000034</v>
       </c>
       <c r="M116" t="n">
+        <v>1.768219000000034</v>
+      </c>
+      <c r="N116" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -6809,6 +7171,9 @@
         <v>2.649999999999977</v>
       </c>
       <c r="M117" t="n">
+        <v>2.518394499999977</v>
+      </c>
+      <c r="N117" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -6864,6 +7229,9 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="M118" t="n">
+        <v>-0.03107900000003409</v>
+      </c>
+      <c r="N118" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -6919,6 +7287,9 @@
         <v>0.5</v>
       </c>
       <c r="M119" t="n">
+        <v>0.368713</v>
+      </c>
+      <c r="N119" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -6974,6 +7345,9 @@
         <v>-0.1500000000000341</v>
       </c>
       <c r="M120" t="n">
+        <v>-0.2812415000000341</v>
+      </c>
+      <c r="N120" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -7029,6 +7403,9 @@
         <v>1.590000000000003</v>
       </c>
       <c r="M121" t="n">
+        <v>1.530383300000003</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.6899999999999999</v>
       </c>
     </row>
@@ -7084,6 +7461,9 @@
         <v>0.9200000000000159</v>
       </c>
       <c r="M122" t="n">
+        <v>0.8606550000000158</v>
+      </c>
+      <c r="N122" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -7139,6 +7519,9 @@
         <v>-0.6999999999999886</v>
       </c>
       <c r="M123" t="n">
+        <v>-0.7594827999999886</v>
+      </c>
+      <c r="N123" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -7194,6 +7577,9 @@
         <v>-0.3799999999999955</v>
       </c>
       <c r="M124" t="n">
+        <v>-0.4396179999999955</v>
+      </c>
+      <c r="N124" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -7249,6 +7635,9 @@
         <v>-1.090000000000003</v>
       </c>
       <c r="M125" t="n">
+        <v>-1.149837700000003</v>
+      </c>
+      <c r="N125" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -7304,6 +7693,9 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
+        <v>-0.0598988</v>
+      </c>
+      <c r="N126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7359,6 +7751,9 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="M127" t="n">
+        <v>-0.04988190000000908</v>
+      </c>
+      <c r="N127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7414,6 +7809,9 @@
         <v>0.4000000000000909</v>
       </c>
       <c r="M128" t="n">
+        <v>0.1312120000000909</v>
+      </c>
+      <c r="N128" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -7469,6 +7867,9 @@
         <v>5</v>
       </c>
       <c r="M129" t="n">
+        <v>4.732018</v>
+      </c>
+      <c r="N129" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -7524,6 +7925,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M130" t="n">
+        <v>-0.4683980000000455</v>
+      </c>
+      <c r="N130" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -7579,6 +7983,9 @@
         <v>2.799999999999955</v>
       </c>
       <c r="M131" t="n">
+        <v>2.531835999999955</v>
+      </c>
+      <c r="N131" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -7634,6 +8041,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M132" t="n">
+        <v>-1.067695999999954</v>
+      </c>
+      <c r="N132" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -7689,6 +8099,9 @@
         <v>-5.800000000000068</v>
       </c>
       <c r="M133" t="n">
+        <v>-6.066890000000068</v>
+      </c>
+      <c r="N133" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -7744,6 +8157,9 @@
         <v>-2.600000000000023</v>
       </c>
       <c r="M134" t="n">
+        <v>-2.866162000000023</v>
+      </c>
+      <c r="N134" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -7799,6 +8215,9 @@
         <v>-2.799999999999955</v>
       </c>
       <c r="M135" t="n">
+        <v>-3.066915999999955</v>
+      </c>
+      <c r="N135" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -7854,6 +8273,9 @@
         <v>-2</v>
       </c>
       <c r="M136" t="n">
+        <v>-2.2652</v>
+      </c>
+      <c r="N136" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -7909,6 +8331,9 @@
         <v>1</v>
       </c>
       <c r="M137" t="n">
+        <v>0.734982</v>
+      </c>
+      <c r="N137" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -7964,6 +8389,9 @@
         <v>-0.8000000000000682</v>
       </c>
       <c r="M138" t="n">
+        <v>-1.064992000000068</v>
+      </c>
+      <c r="N138" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -8019,6 +8447,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M139" t="n">
+        <v>-1.065043999999955</v>
+      </c>
+      <c r="N139" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -8074,6 +8505,9 @@
         <v>-0.6000000000000227</v>
       </c>
       <c r="M140" t="n">
+        <v>-0.8652260000000227</v>
+      </c>
+      <c r="N140" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -8129,6 +8563,9 @@
         <v>-2.599999999999909</v>
       </c>
       <c r="M141" t="n">
+        <v>-2.864809999999909</v>
+      </c>
+      <c r="N141" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -8184,6 +8621,9 @@
         <v>2.399999999999977</v>
       </c>
       <c r="M142" t="n">
+        <v>2.135007999999977</v>
+      </c>
+      <c r="N142" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -8239,6 +8679,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M143" t="n">
+        <v>0.1466966000000068</v>
+      </c>
+      <c r="N143" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -8294,6 +8737,9 @@
         <v>-0.2600000000000193</v>
       </c>
       <c r="M144" t="n">
+        <v>-0.2933814000000193</v>
+      </c>
+      <c r="N144" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -8349,6 +8795,9 @@
         <v>-0.2400000000000091</v>
       </c>
       <c r="M145" t="n">
+        <v>-0.2732072000000091</v>
+      </c>
+      <c r="N145" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -8404,6 +8853,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M146" t="n">
+        <v>0.1468214000000068</v>
+      </c>
+      <c r="N146" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -8459,6 +8911,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M147" t="n">
+        <v>-0.05320459999999602</v>
+      </c>
+      <c r="N147" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -8514,6 +8969,9 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="M148" t="n">
+        <v>-0.07321240000000626</v>
+      </c>
+      <c r="N148" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -8569,6 +9027,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M149" t="n">
+        <v>-0.01321499999998977</v>
+      </c>
+      <c r="N149" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -8624,6 +9085,9 @@
         <v>0.2999999999999829</v>
       </c>
       <c r="M150" t="n">
+        <v>0.2573573999999829</v>
+      </c>
+      <c r="N150" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -8679,6 +9143,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M151" t="n">
+        <v>-0.1028506000000023</v>
+      </c>
+      <c r="N151" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -8734,6 +9201,9 @@
         <v>-0.4199999999999875</v>
       </c>
       <c r="M152" t="n">
+        <v>-0.4630273999999875</v>
+      </c>
+      <c r="N152" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -8789,6 +9259,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M153" t="n">
+        <v>0.1170687999999966</v>
+      </c>
+      <c r="N153" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -8844,6 +9317,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M154" t="n">
+        <v>-0.1429337999999943</v>
+      </c>
+      <c r="N154" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -8899,6 +9375,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M155" t="n">
+        <v>-0.1828870000000148</v>
+      </c>
+      <c r="N155" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -8954,6 +9433,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M156" t="n">
+        <v>-0.4430196000000057</v>
+      </c>
+      <c r="N156" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -9009,6 +9491,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M157" t="n">
+        <v>0.05692579999999432</v>
+      </c>
+      <c r="N157" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -9064,6 +9549,9 @@
         <v>0.2349999999999994</v>
       </c>
       <c r="M158" t="n">
+        <v>0.2218693499999994</v>
+      </c>
+      <c r="N158" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -9119,6 +9607,9 @@
         <v>0.04500000000000171</v>
       </c>
       <c r="M159" t="n">
+        <v>0.03186415000000171</v>
+      </c>
+      <c r="N159" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -9174,6 +9665,9 @@
         <v>-0.1300000000000026</v>
       </c>
       <c r="M160" t="n">
+        <v>-0.1430780000000026</v>
+      </c>
+      <c r="N160" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -9229,6 +9723,9 @@
         <v>-0.1450000000000031</v>
       </c>
       <c r="M161" t="n">
+        <v>-0.1581228500000031</v>
+      </c>
+      <c r="N161" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -9284,6 +9781,9 @@
         <v>0.355000000000004</v>
       </c>
       <c r="M162" t="n">
+        <v>0.341904450000004</v>
+      </c>
+      <c r="N162" t="n">
         <v>0.7000000000000001</v>
       </c>
     </row>
@@ -9339,6 +9839,9 @@
         <v>0</v>
       </c>
       <c r="M163" t="n">
+        <v>-0.0130897</v>
+      </c>
+      <c r="N163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9394,6 +9897,9 @@
         <v>0.1000000000000014</v>
       </c>
       <c r="M164" t="n">
+        <v>0.08689470000000139</v>
+      </c>
+      <c r="N164" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -9449,6 +9955,9 @@
         <v>12.20000000000005</v>
       </c>
       <c r="M165" t="n">
+        <v>11.83550600000005</v>
+      </c>
+      <c r="N165" t="n">
         <v>0.8699999999999999</v>
       </c>
     </row>
@@ -9504,6 +10013,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M166" t="n">
+        <v>-0.5639740000000455</v>
+      </c>
+      <c r="N166" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -9559,6 +10071,9 @@
         <v>1.200000000000045</v>
       </c>
       <c r="M167" t="n">
+        <v>0.836052000000045</v>
+      </c>
+      <c r="N167" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -9606,6 +10121,9 @@
         <v>0</v>
       </c>
       <c r="M168" t="n">
+        <v>-0.364988</v>
+      </c>
+      <c r="N168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9661,6 +10179,9 @@
         <v>-0.3599999999999994</v>
       </c>
       <c r="M169" t="n">
+        <v>-0.3758599999999994</v>
+      </c>
+      <c r="N169" t="n">
         <v>-0.59</v>
       </c>
     </row>
@@ -9716,6 +10237,9 @@
         <v>-0.1499999999999986</v>
       </c>
       <c r="M170" t="n">
+        <v>-0.1657234999999986</v>
+      </c>
+      <c r="N170" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -9771,6 +10295,9 @@
         <v>-0.1700000000000017</v>
       </c>
       <c r="M171" t="n">
+        <v>-0.1856949000000017</v>
+      </c>
+      <c r="N171" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -9826,6 +10353,9 @@
         <v>-0.1799999999999997</v>
       </c>
       <c r="M172" t="n">
+        <v>-0.1957429999999997</v>
+      </c>
+      <c r="N172" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -9881,6 +10411,9 @@
         <v>-0.08999999999999631</v>
       </c>
       <c r="M173" t="n">
+        <v>-0.1057650999999963</v>
+      </c>
+      <c r="N173" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -9936,6 +10469,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M174" t="n">
+        <v>-0.07565720000000227</v>
+      </c>
+      <c r="N174" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -9991,6 +10527,9 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="M175" t="n">
+        <v>0.05434410000000028</v>
+      </c>
+      <c r="N175" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -10046,6 +10585,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M176" t="n">
+        <v>0.1643350000000068</v>
+      </c>
+      <c r="N176" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -10101,6 +10643,9 @@
         <v>-0.01000000000000512</v>
       </c>
       <c r="M177" t="n">
+        <v>-0.03534870000000512</v>
+      </c>
+      <c r="N177" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -10156,6 +10701,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M178" t="n">
+        <v>-0.07536169999999716</v>
+      </c>
+      <c r="N178" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -10211,6 +10759,9 @@
         <v>0</v>
       </c>
       <c r="M179" t="n">
+        <v>-0.025363</v>
+      </c>
+      <c r="N179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10266,6 +10817,9 @@
         <v>0.230000000000004</v>
       </c>
       <c r="M180" t="n">
+        <v>0.215090300000004</v>
+      </c>
+      <c r="N180" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -10321,6 +10875,9 @@
         <v>1.039999999999999</v>
       </c>
       <c r="M181" t="n">
+        <v>1.025195599999999</v>
+      </c>
+      <c r="N181" t="n">
         <v>1.81</v>
       </c>
     </row>
@@ -10376,6 +10933,9 @@
         <v>-0.4400000000000048</v>
       </c>
       <c r="M182" t="n">
+        <v>-0.4548538000000048</v>
+      </c>
+      <c r="N182" t="n">
         <v>-0.77</v>
       </c>
     </row>
@@ -10431,6 +10991,9 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="M183" t="n">
+        <v>-0.1147862000000014</v>
+      </c>
+      <c r="N183" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -10486,6 +11049,9 @@
         <v>-0.1799999999999997</v>
       </c>
       <c r="M184" t="n">
+        <v>-0.1948147999999997</v>
+      </c>
+      <c r="N184" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -10541,6 +11107,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M185" t="n">
+        <v>0.06517219999999829</v>
+      </c>
+      <c r="N185" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -10596,6 +11165,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M186" t="n">
+        <v>0.1224715999999966</v>
+      </c>
+      <c r="N186" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -10651,6 +11223,9 @@
         <v>1.219999999999999</v>
       </c>
       <c r="M187" t="n">
+        <v>1.182687399999999</v>
+      </c>
+      <c r="N187" t="n">
         <v>0.8500000000000001</v>
       </c>
     </row>
@@ -10706,6 +11281,9 @@
         <v>0.1800000000000068</v>
       </c>
       <c r="M188" t="n">
+        <v>0.1429006000000068</v>
+      </c>
+      <c r="N188" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -10761,6 +11339,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M189" t="n">
+        <v>-0.1572840000000045</v>
+      </c>
+      <c r="N189" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -10816,6 +11397,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M190" t="n">
+        <v>0.02270300000000228</v>
+      </c>
+      <c r="N190" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -10871,6 +11455,9 @@
         <v>0.9199999999999875</v>
       </c>
       <c r="M191" t="n">
+        <v>0.8827731999999876</v>
+      </c>
+      <c r="N191" t="n">
         <v>0.64</v>
       </c>
     </row>
@@ -10926,6 +11513,9 @@
         <v>-1.620000000000005</v>
       </c>
       <c r="M192" t="n">
+        <v>-1.657473800000005</v>
+      </c>
+      <c r="N192" t="n">
         <v>-1.13</v>
       </c>
     </row>
@@ -10981,6 +11571,9 @@
         <v>-1.240000000000009</v>
       </c>
       <c r="M193" t="n">
+        <v>-1.277845600000009</v>
+      </c>
+      <c r="N193" t="n">
         <v>-0.86</v>
       </c>
     </row>
@@ -11036,6 +11629,9 @@
         <v>0.6999999999999886</v>
       </c>
       <c r="M194" t="n">
+        <v>0.6622453999999887</v>
+      </c>
+      <c r="N194" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -11091,6 +11687,9 @@
         <v>-0.3599999999999852</v>
       </c>
       <c r="M195" t="n">
+        <v>-0.3977623999999852</v>
+      </c>
+      <c r="N195" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -11146,6 +11745,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M196" t="n">
+        <v>-0.1177468000000125</v>
+      </c>
+      <c r="N196" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -11201,6 +11803,9 @@
         <v>-0.06200000000000117</v>
       </c>
       <c r="M197" t="n">
+        <v>-0.06743946000000117</v>
+      </c>
+      <c r="N197" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -11256,6 +11861,9 @@
         <v>-0.2109999999999985</v>
       </c>
       <c r="M198" t="n">
+        <v>-0.2164655899999985</v>
+      </c>
+      <c r="N198" t="n">
         <v>-1.01</v>
       </c>
     </row>
@@ -11311,6 +11919,9 @@
         <v>-0.07000000000000028</v>
       </c>
       <c r="M199" t="n">
+        <v>-0.07537316000000029</v>
+      </c>
+      <c r="N199" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -11366,6 +11977,9 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="M200" t="n">
+        <v>0.01959992999999858</v>
+      </c>
+      <c r="N200" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -11421,6 +12035,9 @@
         <v>-0.1130000000000031</v>
       </c>
       <c r="M201" t="n">
+        <v>-0.1184161900000031</v>
+      </c>
+      <c r="N201" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -11476,6 +12093,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M202" t="n">
+        <v>-0.01543217999999801</v>
+      </c>
+      <c r="N202" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -11531,6 +12151,9 @@
         <v>0.02400000000000091</v>
       </c>
       <c r="M203" t="n">
+        <v>0.01861384000000091</v>
+      </c>
+      <c r="N203" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -11586,6 +12209,9 @@
         <v>-0.03500000000000014</v>
       </c>
       <c r="M204" t="n">
+        <v>-0.04042555000000014</v>
+      </c>
+      <c r="N204" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -11633,6 +12259,9 @@
         <v>0</v>
       </c>
       <c r="M205" t="n">
+        <v>-0.0054353</v>
+      </c>
+      <c r="N205" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11688,6 +12317,9 @@
         <v>-2.350000000000023</v>
       </c>
       <c r="M206" t="n">
+        <v>-2.523816500000023</v>
+      </c>
+      <c r="N206" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -11743,6 +12375,9 @@
         <v>-2.75</v>
       </c>
       <c r="M207" t="n">
+        <v>-2.9244275</v>
+      </c>
+      <c r="N207" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -11798,6 +12433,9 @@
         <v>-1.649999999999977</v>
       </c>
       <c r="M208" t="n">
+        <v>-1.824960499999977</v>
+      </c>
+      <c r="N208" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -11853,6 +12491,9 @@
         <v>-0.0006600000000000078</v>
       </c>
       <c r="M209" t="n">
+        <v>-0.0006861326000000078</v>
+      </c>
+      <c r="N209" t="n">
         <v>-0.66</v>
       </c>
     </row>
@@ -11908,6 +12549,9 @@
         <v>-0.0004199999999999898</v>
       </c>
       <c r="M210" t="n">
+        <v>-0.0004458621999999898</v>
+      </c>
+      <c r="N210" t="n">
         <v>-0.42</v>
       </c>
     </row>
@@ -11963,6 +12607,9 @@
         <v>0.0005399999999999988</v>
       </c>
       <c r="M211" t="n">
+        <v>0.0005141325999999988</v>
+      </c>
+      <c r="N211" t="n">
         <v>0.54</v>
       </c>
     </row>
@@ -12018,6 +12665,9 @@
         <v>3.999999999999837e-05</v>
       </c>
       <c r="M212" t="n">
+        <v>1.421319999999837e-05</v>
+      </c>
+      <c r="N212" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -12073,6 +12723,9 @@
         <v>-0.0003999999999999559</v>
       </c>
       <c r="M213" t="n">
+        <v>-0.0005558179999999559</v>
+      </c>
+      <c r="N213" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -12128,6 +12781,9 @@
         <v>0.003600000000000048</v>
       </c>
       <c r="M214" t="n">
+        <v>0.003444156000000048</v>
+      </c>
+      <c r="N214" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -12183,6 +12839,9 @@
         <v>-9.999999999998899e-05</v>
       </c>
       <c r="M215" t="n">
+        <v>-0.000256298999999989</v>
+      </c>
+      <c r="N215" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -12238,6 +12897,9 @@
         <v>0.000299999999999967</v>
       </c>
       <c r="M216" t="n">
+        <v>0.000143310999999967</v>
+      </c>
+      <c r="N216" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -12293,6 +12955,9 @@
         <v>-5.199999999999818</v>
       </c>
       <c r="M217" t="n">
+        <v>-5.978075999999819</v>
+      </c>
+      <c r="N217" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -12348,6 +13013,9 @@
         <v>6</v>
       </c>
       <c r="M218" t="n">
+        <v>5.220936</v>
+      </c>
+      <c r="N218" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -12403,6 +13071,9 @@
         <v>7.949999999999818</v>
       </c>
       <c r="M219" t="n">
+        <v>7.173906499999818</v>
+      </c>
+      <c r="N219" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -12458,6 +13129,9 @@
         <v>-2.150000000000091</v>
       </c>
       <c r="M220" t="n">
+        <v>-2.924234500000091</v>
+      </c>
+      <c r="N220" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -12513,6 +13187,9 @@
         <v>3.5</v>
       </c>
       <c r="M221" t="n">
+        <v>2.726838</v>
+      </c>
+      <c r="N221" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -12568,6 +13245,9 @@
         <v>-3.149999999999636</v>
       </c>
       <c r="M222" t="n">
+        <v>-3.922687499999636</v>
+      </c>
+      <c r="N222" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -12623,6 +13303,9 @@
         <v>-4.400000000000091</v>
       </c>
       <c r="M223" t="n">
+        <v>-5.170588000000091</v>
+      </c>
+      <c r="N223" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -12678,6 +13361,9 @@
         <v>-2.75</v>
       </c>
       <c r="M224" t="n">
+        <v>-3.5214525</v>
+      </c>
+      <c r="N224" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -12733,6 +13419,9 @@
         <v>-2.050000000000182</v>
       </c>
       <c r="M225" t="n">
+        <v>-2.819086500000182</v>
+      </c>
+      <c r="N225" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -12788,6 +13477,9 @@
         <v>4.5</v>
       </c>
       <c r="M226" t="n">
+        <v>3.730621</v>
+      </c>
+      <c r="N226" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -12843,6 +13535,9 @@
         <v>-2.5</v>
       </c>
       <c r="M227" t="n">
+        <v>-3.273409</v>
+      </c>
+      <c r="N227" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -12898,6 +13593,9 @@
         <v>-4.050000000000182</v>
       </c>
       <c r="M228" t="n">
+        <v>-4.823662500000181</v>
+      </c>
+      <c r="N228" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -12953,6 +13651,9 @@
         <v>-2.150000000000091</v>
       </c>
       <c r="M229" t="n">
+        <v>-2.920451500000091</v>
+      </c>
+      <c r="N229" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -13008,6 +13709,9 @@
         <v>-2.050000000000182</v>
       </c>
       <c r="M230" t="n">
+        <v>-2.821283500000182</v>
+      </c>
+      <c r="N230" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -13063,6 +13767,9 @@
         <v>-0.1500000000000909</v>
       </c>
       <c r="M231" t="n">
+        <v>-0.9201005000000908</v>
+      </c>
+      <c r="N231" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -13118,6 +13825,9 @@
         <v>4.400000000000091</v>
       </c>
       <c r="M232" t="n">
+        <v>3.629399000000091</v>
+      </c>
+      <c r="N232" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -13173,6 +13883,9 @@
         <v>3.799999999999727</v>
       </c>
       <c r="M233" t="n">
+        <v>3.029021999999727</v>
+      </c>
+      <c r="N233" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -13228,6 +13941,9 @@
         <v>-0.05999999999999517</v>
       </c>
       <c r="M234" t="n">
+        <v>-0.06894269999999517</v>
+      </c>
+      <c r="N234" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -13283,6 +13999,9 @@
         <v>-0.2899999999999991</v>
       </c>
       <c r="M235" t="n">
+        <v>-0.2989023999999991</v>
+      </c>
+      <c r="N235" t="n">
         <v>-0.84</v>
       </c>
     </row>
@@ -13338,6 +14057,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M236" t="n">
+        <v>-0.06889720000000227</v>
+      </c>
+      <c r="N236" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -13393,6 +14115,9 @@
         <v>-0.1700000000000017</v>
       </c>
       <c r="M237" t="n">
+        <v>-0.1789349000000017</v>
+      </c>
+      <c r="N237" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -13448,6 +14173,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M238" t="n">
+        <v>-0.02894010000000313</v>
+      </c>
+      <c r="N238" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -13494,17 +14222,18 @@
         </is>
       </c>
       <c r="J239" t="n">
-        <v>34.21</v>
+        <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>11.858</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
-        <v>22.352</v>
+        <v>0</v>
       </c>
       <c r="M239" t="n">
-        <v>65.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -13558,6 +14287,9 @@
         <v>0.0009999999999994458</v>
       </c>
       <c r="M240" t="n">
+        <v>-0.002083470000000554</v>
+      </c>
+      <c r="N240" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -13613,6 +14345,9 @@
         <v>-0.003000000000000114</v>
       </c>
       <c r="M241" t="n">
+        <v>-0.006085290000000115</v>
+      </c>
+      <c r="N241" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -13658,10 +14393,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -13715,6 +14459,9 @@
         <v>0.01999999999998181</v>
       </c>
       <c r="M243" t="n">
+        <v>-0.05245680000001818</v>
+      </c>
+      <c r="N243" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -13770,6 +14517,9 @@
         <v>-0.17999999999995</v>
       </c>
       <c r="M244" t="n">
+        <v>-0.25223059999995</v>
+      </c>
+      <c r="N244" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -13825,6 +14575,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M245" t="n">
+        <v>-0.2523008000000068</v>
+      </c>
+      <c r="N245" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -13880,6 +14633,9 @@
         <v>0.1899999999999977</v>
       </c>
       <c r="M246" t="n">
+        <v>0.1177940999999977</v>
+      </c>
+      <c r="N246" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -13935,6 +14691,9 @@
         <v>0</v>
       </c>
       <c r="M247" t="n">
+        <v>-0.07219159999999999</v>
+      </c>
+      <c r="N247" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13990,6 +14749,9 @@
         <v>-0.1700000000000159</v>
       </c>
       <c r="M248" t="n">
+        <v>-0.2033931000000159</v>
+      </c>
+      <c r="N248" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -14045,6 +14807,9 @@
         <v>-0.1899999999999977</v>
       </c>
       <c r="M249" t="n">
+        <v>-0.2233332999999977</v>
+      </c>
+      <c r="N249" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -14100,6 +14865,9 @@
         <v>0.289999999999992</v>
       </c>
       <c r="M250" t="n">
+        <v>0.256705699999992</v>
+      </c>
+      <c r="N250" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -14155,6 +14923,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M251" t="n">
+        <v>-0.1432838999999994</v>
+      </c>
+      <c r="N251" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -14210,6 +14981,9 @@
         <v>0.2099999999999937</v>
       </c>
       <c r="M252" t="n">
+        <v>0.1767212999999937</v>
+      </c>
+      <c r="N252" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -14265,6 +15039,9 @@
         <v>2</v>
       </c>
       <c r="M253" t="n">
+        <v>0.3304100000000003</v>
+      </c>
+      <c r="N253" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -14320,6 +15097,9 @@
         <v>-5.5</v>
       </c>
       <c r="M254" t="n">
+        <v>-7.167185</v>
+      </c>
+      <c r="N254" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -14375,6 +15155,9 @@
         <v>-11.5</v>
       </c>
       <c r="M255" t="n">
+        <v>-13.170565</v>
+      </c>
+      <c r="N255" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -14430,6 +15213,9 @@
         <v>20</v>
       </c>
       <c r="M256" t="n">
+        <v>18.33054</v>
+      </c>
+      <c r="N256" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -14485,6 +15271,9 @@
         <v>-8</v>
       </c>
       <c r="M257" t="n">
+        <v>-9.67193</v>
+      </c>
+      <c r="N257" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -14540,6 +15329,9 @@
         <v>10</v>
       </c>
       <c r="M258" t="n">
+        <v>8.32612</v>
+      </c>
+      <c r="N258" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -14595,6 +15387,9 @@
         <v>-3.5</v>
       </c>
       <c r="M259" t="n">
+        <v>-5.174855</v>
+      </c>
+      <c r="N259" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -14650,6 +15445,9 @@
         <v>-13.5</v>
       </c>
       <c r="M260" t="n">
+        <v>-15.171605</v>
+      </c>
+      <c r="N260" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -14705,6 +15503,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M261" t="n">
+        <v>0.6707149999999545</v>
+      </c>
+      <c r="N261" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -14760,6 +15561,9 @@
         <v>1.350000000000023</v>
       </c>
       <c r="M262" t="n">
+        <v>1.220617500000023</v>
+      </c>
+      <c r="N262" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -14815,6 +15619,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M263" t="n">
+        <v>-0.4292330000000114</v>
+      </c>
+      <c r="N263" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -14870,6 +15677,9 @@
         <v>1.049999999999955</v>
       </c>
       <c r="M264" t="n">
+        <v>0.920747499999955</v>
+      </c>
+      <c r="N264" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -14925,6 +15735,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M265" t="n">
+        <v>0.1017547999999966</v>
+      </c>
+      <c r="N265" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -14980,6 +15793,9 @@
         <v>-0.25</v>
       </c>
       <c r="M266" t="n">
+        <v>-0.3084727</v>
+      </c>
+      <c r="N266" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -15035,6 +15851,9 @@
         <v>-0.2300000000000182</v>
       </c>
       <c r="M267" t="n">
+        <v>-0.2883947000000182</v>
+      </c>
+      <c r="N267" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -15090,6 +15909,9 @@
         <v>-0.1500000000000057</v>
       </c>
       <c r="M268" t="n">
+        <v>-0.2085585000000057</v>
+      </c>
+      <c r="N268" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -15145,6 +15967,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M269" t="n">
+        <v>-0.1784818000000045</v>
+      </c>
+      <c r="N269" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -15200,6 +16025,9 @@
         <v>-0.789999999999992</v>
       </c>
       <c r="M270" t="n">
+        <v>-0.8483634999999921</v>
+      </c>
+      <c r="N270" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -15255,6 +16083,9 @@
         <v>-0.8000000000000682</v>
       </c>
       <c r="M271" t="n">
+        <v>-1.061352000000068</v>
+      </c>
+      <c r="N271" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -15310,6 +16141,9 @@
         <v>-1.799999999999955</v>
       </c>
       <c r="M272" t="n">
+        <v>-2.060909999999955</v>
+      </c>
+      <c r="N272" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -15365,6 +16199,9 @@
         <v>0</v>
       </c>
       <c r="M273" t="n">
+        <v>-0.26208</v>
+      </c>
+      <c r="N273" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15420,6 +16257,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M274" t="n">
+        <v>-0.6627559999999773</v>
+      </c>
+      <c r="N274" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -15475,6 +16315,9 @@
         <v>-2</v>
       </c>
       <c r="M275" t="n">
+        <v>-2.261976</v>
+      </c>
+      <c r="N275" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -15530,6 +16373,9 @@
         <v>2.199999999999932</v>
       </c>
       <c r="M276" t="n">
+        <v>1.938517999999932</v>
+      </c>
+      <c r="N276" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -15585,6 +16431,9 @@
         <v>0</v>
       </c>
       <c r="M277" t="n">
+        <v>-0.003101019999999999</v>
+      </c>
+      <c r="N277" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15640,6 +16489,9 @@
         <v>0.3200000000000074</v>
       </c>
       <c r="M278" t="n">
+        <v>0.2876248000000074</v>
+      </c>
+      <c r="N278" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -15695,6 +16547,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M279" t="n">
+        <v>-0.05235699999999602</v>
+      </c>
+      <c r="N279" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -15750,6 +16605,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M280" t="n">
+        <v>-0.07223999999999205</v>
+      </c>
+      <c r="N280" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -15805,6 +16663,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M281" t="n">
+        <v>-0.1123387999999983</v>
+      </c>
+      <c r="N281" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -15860,6 +16721,9 @@
         <v>-0.05999999999998806</v>
       </c>
       <c r="M282" t="n">
+        <v>-0.09235179999998805</v>
+      </c>
+      <c r="N282" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -15915,6 +16779,9 @@
         <v>0.2000000000000028</v>
       </c>
       <c r="M283" t="n">
+        <v>0.1676404000000028</v>
+      </c>
+      <c r="N283" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -15970,6 +16837,9 @@
         <v>-0.1399999999999864</v>
       </c>
       <c r="M284" t="n">
+        <v>-0.1723049999999864</v>
+      </c>
+      <c r="N284" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -16025,6 +16895,9 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="M285" t="n">
+        <v>0.007702799999992044</v>
+      </c>
+      <c r="N285" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -16080,6 +16953,9 @@
         <v>0.2599999999999909</v>
       </c>
       <c r="M286" t="n">
+        <v>0.2181581999999909</v>
+      </c>
+      <c r="N286" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -16135,6 +17011,9 @@
         <v>-0.2800000000000011</v>
       </c>
       <c r="M287" t="n">
+        <v>-0.321740400000001</v>
+      </c>
+      <c r="N287" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -16190,6 +17069,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M288" t="n">
+        <v>0.1182647999999966</v>
+      </c>
+      <c r="N288" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -16245,6 +17127,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M289" t="n">
+        <v>-0.2017715999999966</v>
+      </c>
+      <c r="N289" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -16300,6 +17185,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M290" t="n">
+        <v>-0.2418183999999886</v>
+      </c>
+      <c r="N290" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -16355,6 +17243,9 @@
         <v>0.3799999999999955</v>
       </c>
       <c r="M291" t="n">
+        <v>0.3381737999999955</v>
+      </c>
+      <c r="N291" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -16410,6 +17301,9 @@
         <v>-0.1800000000000068</v>
       </c>
       <c r="M292" t="n">
+        <v>-0.2218522000000068</v>
+      </c>
+      <c r="N292" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -16465,6 +17359,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M293" t="n">
+        <v>-0.1018158000000023</v>
+      </c>
+      <c r="N293" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -16520,6 +17417,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M294" t="n">
+        <v>-0.02180539999998977</v>
+      </c>
+      <c r="N294" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -16575,6 +17475,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M295" t="n">
+        <v>-0.02275559999999801</v>
+      </c>
+      <c r="N295" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -16630,6 +17533,9 @@
         <v>-0.04000000000000625</v>
       </c>
       <c r="M296" t="n">
+        <v>-0.05279070000000625</v>
+      </c>
+      <c r="N296" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -16685,6 +17591,9 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="M297" t="n">
+        <v>-0.00278679999999488</v>
+      </c>
+      <c r="N297" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -16740,6 +17649,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M298" t="n">
+        <v>-0.5595020000000455</v>
+      </c>
+      <c r="N298" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -16795,6 +17707,9 @@
         <v>-2.399999999999864</v>
       </c>
       <c r="M299" t="n">
+        <v>-2.758435999999864</v>
+      </c>
+      <c r="N299" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -16850,6 +17765,9 @@
         <v>2</v>
       </c>
       <c r="M300" t="n">
+        <v>1.641304</v>
+      </c>
+      <c r="N300" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -16905,6 +17823,9 @@
         <v>-1.399999999999864</v>
       </c>
       <c r="M301" t="n">
+        <v>-1.758565999999864</v>
+      </c>
+      <c r="N301" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -16952,6 +17873,9 @@
         <v>0</v>
       </c>
       <c r="M302" t="n">
+        <v>-0.358488</v>
+      </c>
+      <c r="N302" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17007,6 +17931,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M303" t="n">
+        <v>-0.03535039999999602</v>
+      </c>
+      <c r="N303" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -17062,6 +17989,9 @@
         <v>-0.1199999999999974</v>
       </c>
       <c r="M304" t="n">
+        <v>-0.1353165999999974</v>
+      </c>
+      <c r="N304" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -17117,6 +18047,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M305" t="n">
+        <v>-0.1054843000000034</v>
+      </c>
+      <c r="N305" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -17172,6 +18105,9 @@
         <v>0.1199999999999974</v>
       </c>
       <c r="M306" t="n">
+        <v>0.1045143999999974</v>
+      </c>
+      <c r="N306" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -17227,6 +18163,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M307" t="n">
+        <v>-0.03549340000000313</v>
+      </c>
+      <c r="N307" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -17282,6 +18221,9 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="M308" t="n">
+        <v>-0.06546870000000427</v>
+      </c>
+      <c r="N308" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -17337,6 +18279,9 @@
         <v>-0.2700000000000102</v>
       </c>
       <c r="M309" t="n">
+        <v>-0.2949639000000102</v>
+      </c>
+      <c r="N309" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -17392,6 +18337,9 @@
         <v>0.06999999999999318</v>
       </c>
       <c r="M310" t="n">
+        <v>0.04498669999999318</v>
+      </c>
+      <c r="N310" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -17447,6 +18395,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M311" t="n">
+        <v>-0.05495610000000114</v>
+      </c>
+      <c r="N311" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -17502,6 +18453,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M312" t="n">
+        <v>0.1150114000000006</v>
+      </c>
+      <c r="N312" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -17557,6 +18511,9 @@
         <v>0.1700000000000017</v>
       </c>
       <c r="M313" t="n">
+        <v>0.1451141000000017</v>
+      </c>
+      <c r="N313" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -17612,6 +18569,9 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="M314" t="n">
+        <v>0.03550889999999716</v>
+      </c>
+      <c r="N314" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -17667,6 +18627,9 @@
         <v>0.2700000000000031</v>
       </c>
       <c r="M315" t="n">
+        <v>0.2554751000000031</v>
+      </c>
+      <c r="N315" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -17722,6 +18685,9 @@
         <v>0.6800000000000068</v>
       </c>
       <c r="M316" t="n">
+        <v>0.6435688000000068</v>
+      </c>
+      <c r="N316" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -17777,6 +18743,9 @@
         <v>-0.6199999999999761</v>
       </c>
       <c r="M317" t="n">
+        <v>-0.6563141999999762</v>
+      </c>
+      <c r="N317" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -17832,6 +18801,9 @@
         <v>0.3400000000000034</v>
       </c>
       <c r="M318" t="n">
+        <v>0.3035402000000034</v>
+      </c>
+      <c r="N318" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -17887,6 +18859,9 @@
         <v>-0.8799999999999955</v>
       </c>
       <c r="M319" t="n">
+        <v>-0.9169667999999954</v>
+      </c>
+      <c r="N319" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -17942,6 +18917,9 @@
         <v>0.3600000000000136</v>
       </c>
       <c r="M320" t="n">
+        <v>0.3229188000000136</v>
+      </c>
+      <c r="N320" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -17997,6 +18975,9 @@
         <v>-0.2400000000000091</v>
       </c>
       <c r="M321" t="n">
+        <v>-0.2770916000000091</v>
+      </c>
+      <c r="N321" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -18052,6 +19033,9 @@
         <v>-0.05900000000000105</v>
       </c>
       <c r="M322" t="n">
+        <v>-0.06420377000000105</v>
+      </c>
+      <c r="N322" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -18107,6 +19091,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M323" t="n">
+        <v>-0.03516828000000114</v>
+      </c>
+      <c r="N323" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -18162,6 +19149,9 @@
         <v>-0.03800000000000026</v>
       </c>
       <c r="M324" t="n">
+        <v>-0.04318830000000026</v>
+      </c>
+      <c r="N324" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -18217,6 +19207,9 @@
         <v>-0.03200000000000003</v>
       </c>
       <c r="M325" t="n">
+        <v>-0.03717166000000003</v>
+      </c>
+      <c r="N325" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -18272,6 +19265,9 @@
         <v>-0.09099999999999753</v>
       </c>
       <c r="M326" t="n">
+        <v>-0.09615930999999753</v>
+      </c>
+      <c r="N326" t="n">
         <v>-0.46</v>
       </c>
     </row>
@@ -18327,6 +19323,9 @@
         <v>0.03800000000000026</v>
       </c>
       <c r="M327" t="n">
+        <v>0.03284264000000026</v>
+      </c>
+      <c r="N327" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -18382,6 +19381,9 @@
         <v>6.600000000000023</v>
       </c>
       <c r="M328" t="n">
+        <v>6.429986000000024</v>
+      </c>
+      <c r="N328" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -18437,6 +19439,9 @@
         <v>-1.899999999999977</v>
       </c>
       <c r="M329" t="n">
+        <v>-2.070975999999977</v>
+      </c>
+      <c r="N329" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -18492,6 +19497,9 @@
         <v>-0.5499999999999545</v>
       </c>
       <c r="M330" t="n">
+        <v>-0.7212424999999545</v>
+      </c>
+      <c r="N330" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -18547,6 +19555,9 @@
         <v>-1.849999999999909</v>
       </c>
       <c r="M331" t="n">
+        <v>-2.021762499999909</v>
+      </c>
+      <c r="N331" t="n">
         <v>-0.28</v>
       </c>
     </row>
@@ -18602,6 +19613,9 @@
         <v>-0.75</v>
       </c>
       <c r="M332" t="n">
+        <v>-0.9216974999999999</v>
+      </c>
+      <c r="N332" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -18657,6 +19671,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M333" t="n">
+        <v>0.02842600000004553</v>
+      </c>
+      <c r="N333" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -18712,6 +19729,9 @@
         <v>-0.5</v>
       </c>
       <c r="M334" t="n">
+        <v>-0.671821</v>
+      </c>
+      <c r="N334" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -18767,6 +19787,9 @@
         <v>1.600000000000023</v>
       </c>
       <c r="M335" t="n">
+        <v>1.428322000000023</v>
+      </c>
+      <c r="N335" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -18822,6 +19845,9 @@
         <v>0.6500000000000057</v>
       </c>
       <c r="M336" t="n">
+        <v>0.6096311000000056</v>
+      </c>
+      <c r="N336" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -18877,6 +19903,9 @@
         <v>0.3900000000000148</v>
       </c>
       <c r="M337" t="n">
+        <v>0.3495245000000148</v>
+      </c>
+      <c r="N337" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -18932,6 +19961,9 @@
         <v>-0.000219999999999998</v>
       </c>
       <c r="M338" t="n">
+        <v>-0.000244848199999998</v>
+      </c>
+      <c r="N338" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -18987,6 +20019,9 @@
         <v>-3.999999999999837e-05</v>
       </c>
       <c r="M339" t="n">
+        <v>-6.481439999999837e-05</v>
+      </c>
+      <c r="N339" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -19042,6 +20077,9 @@
         <v>0.0001600000000000074</v>
       </c>
       <c r="M340" t="n">
+        <v>0.0001352792000000074</v>
+      </c>
+      <c r="N340" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -19097,6 +20135,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M341" t="n">
+        <v>-0.07482610000001136</v>
+      </c>
+      <c r="N341" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -19152,6 +20193,9 @@
         <v>-4.400000000000091</v>
       </c>
       <c r="M342" t="n">
+        <v>-5.15359700000009</v>
+      </c>
+      <c r="N342" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -19207,6 +20251,9 @@
         <v>4.599999999999909</v>
       </c>
       <c r="M343" t="n">
+        <v>3.847130999999909</v>
+      </c>
+      <c r="N343" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -19262,6 +20309,9 @@
         <v>-2.75</v>
       </c>
       <c r="M344" t="n">
+        <v>-3.5038245</v>
+      </c>
+      <c r="N344" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -19317,6 +20367,9 @@
         <v>-1.699999999999818</v>
       </c>
       <c r="M345" t="n">
+        <v>-2.454389999999818</v>
+      </c>
+      <c r="N345" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -19372,6 +20425,9 @@
         <v>0.5500000000001819</v>
       </c>
       <c r="M346" t="n">
+        <v>-0.2043964999998181</v>
+      </c>
+      <c r="N346" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -19427,6 +20483,9 @@
         <v>-5.400000000000091</v>
       </c>
       <c r="M347" t="n">
+        <v>-6.154338000000091</v>
+      </c>
+      <c r="N347" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -19482,6 +20541,9 @@
         <v>-1.5</v>
       </c>
       <c r="M348" t="n">
+        <v>-2.253415</v>
+      </c>
+      <c r="N348" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -19537,6 +20599,9 @@
         <v>-0.003999999999999559</v>
       </c>
       <c r="M349" t="n">
+        <v>-0.007094519999999559</v>
+      </c>
+      <c r="N349" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -19582,10 +20647,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
-      <c r="M350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>0</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0</v>
+      </c>
+      <c r="M350" t="n">
+        <v>0</v>
+      </c>
+      <c r="N350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -19639,6 +20713,9 @@
         <v>1.550000000000011</v>
       </c>
       <c r="M351" t="n">
+        <v>1.477188300000011</v>
+      </c>
+      <c r="N351" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -19694,6 +20771,9 @@
         <v>-0.1999999999999886</v>
       </c>
       <c r="M352" t="n">
+        <v>-0.2728389999999886</v>
+      </c>
+      <c r="N352" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -19749,6 +20829,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M353" t="n">
+        <v>-0.3727714000000114</v>
+      </c>
+      <c r="N353" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -19804,6 +20887,9 @@
         <v>-0.3799999999999955</v>
       </c>
       <c r="M354" t="n">
+        <v>-0.4525893999999955</v>
+      </c>
+      <c r="N354" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -19859,6 +20945,9 @@
         <v>0.1100000000000136</v>
       </c>
       <c r="M355" t="n">
+        <v>0.0373781000000136</v>
+      </c>
+      <c r="N355" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -19914,6 +21003,9 @@
         <v>0.08999999999997499</v>
       </c>
       <c r="M356" t="n">
+        <v>0.017339099999975</v>
+      </c>
+      <c r="N356" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -19969,6 +21061,9 @@
         <v>-0.1899999999999977</v>
       </c>
       <c r="M357" t="n">
+        <v>-0.2627232999999977</v>
+      </c>
+      <c r="N357" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -20024,6 +21119,9 @@
         <v>-0.160000000000025</v>
       </c>
       <c r="M358" t="n">
+        <v>-0.232675200000025</v>
+      </c>
+      <c r="N358" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -20079,6 +21177,9 @@
         <v>-0.4199999999999591</v>
       </c>
       <c r="M359" t="n">
+        <v>-0.4925555999999591</v>
+      </c>
+      <c r="N359" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -20134,6 +21235,9 @@
         <v>-0.2200000000000273</v>
       </c>
       <c r="M360" t="n">
+        <v>-0.2924412000000273</v>
+      </c>
+      <c r="N360" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -20189,6 +21293,9 @@
         <v>0.6400000000000432</v>
       </c>
       <c r="M361" t="n">
+        <v>0.5677616000000432</v>
+      </c>
+      <c r="N361" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -20244,6 +21351,9 @@
         <v>-0.1100000000000136</v>
       </c>
       <c r="M362" t="n">
+        <v>-0.1821149000000136</v>
+      </c>
+      <c r="N362" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -20299,6 +21409,9 @@
         <v>-0.5200000000000387</v>
       </c>
       <c r="M363" t="n">
+        <v>-0.5922254000000386</v>
+      </c>
+      <c r="N363" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -20354,6 +21467,9 @@
         <v>-0.5300000000000296</v>
       </c>
       <c r="M364" t="n">
+        <v>-0.6024165000000296</v>
+      </c>
+      <c r="N364" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -20409,6 +21525,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M365" t="n">
+        <v>-0.3724620000000115</v>
+      </c>
+      <c r="N365" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -20464,6 +21583,9 @@
         <v>0.01000000000004775</v>
       </c>
       <c r="M366" t="n">
+        <v>-0.06262969999995224</v>
+      </c>
+      <c r="N366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20519,6 +21641,9 @@
         <v>-0.2300000000000182</v>
       </c>
       <c r="M367" t="n">
+        <v>-0.3027519000000182</v>
+      </c>
+      <c r="N367" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -20574,6 +21699,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M368" t="n">
+        <v>-0.1335685999999943</v>
+      </c>
+      <c r="N368" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -20629,6 +21757,9 @@
         <v>-0.1399999999999864</v>
       </c>
       <c r="M369" t="n">
+        <v>-0.1735321999999864</v>
+      </c>
+      <c r="N369" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -20684,6 +21815,9 @@
         <v>0.6500000000000057</v>
       </c>
       <c r="M370" t="n">
+        <v>0.6165185000000057</v>
+      </c>
+      <c r="N370" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -20739,6 +21873,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M371" t="n">
+        <v>-0.06353090000000114</v>
+      </c>
+      <c r="N371" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -20794,6 +21931,9 @@
         <v>-0.4200000000000159</v>
       </c>
       <c r="M372" t="n">
+        <v>-0.4535894000000159</v>
+      </c>
+      <c r="N372" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -20849,6 +21989,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M373" t="n">
+        <v>-0.1935737999999966</v>
+      </c>
+      <c r="N373" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -20904,6 +22047,9 @@
         <v>-0.1799999999999784</v>
       </c>
       <c r="M374" t="n">
+        <v>-0.2135191999999784</v>
+      </c>
+      <c r="N374" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -20959,6 +22105,9 @@
         <v>0.05999999999997385</v>
       </c>
       <c r="M375" t="n">
+        <v>0.02649639999997386</v>
+      </c>
+      <c r="N375" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -21014,6 +22163,9 @@
         <v>-0.4300000000000068</v>
       </c>
       <c r="M376" t="n">
+        <v>-0.4632709000000068</v>
+      </c>
+      <c r="N376" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -21069,6 +22221,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M377" t="n">
+        <v>-0.06334890000000114</v>
+      </c>
+      <c r="N377" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -21124,6 +22279,9 @@
         <v>0.4399999999999977</v>
       </c>
       <c r="M378" t="n">
+        <v>0.4066471999999978</v>
+      </c>
+      <c r="N378" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -21179,6 +22337,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M379" t="n">
+        <v>-0.01342039999998977</v>
+      </c>
+      <c r="N379" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -21234,6 +22395,9 @@
         <v>0</v>
       </c>
       <c r="M380" t="n">
+        <v>-0.033423</v>
+      </c>
+      <c r="N380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21289,6 +22453,9 @@
         <v>0.02000000000001023</v>
       </c>
       <c r="M381" t="n">
+        <v>-0.01342039999998977</v>
+      </c>
+      <c r="N381" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -21336,6 +22503,9 @@
         <v>0</v>
       </c>
       <c r="M382" t="n">
+        <v>-0.0334204</v>
+      </c>
+      <c r="N382" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21391,6 +22561,9 @@
         <v>2.5</v>
       </c>
       <c r="M383" t="n">
+        <v>0.8191650000000001</v>
+      </c>
+      <c r="N383" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -21446,6 +22619,9 @@
         <v>19</v>
       </c>
       <c r="M384" t="n">
+        <v>17.32703</v>
+      </c>
+      <c r="N384" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -21501,6 +22677,9 @@
         <v>3</v>
       </c>
       <c r="M385" t="n">
+        <v>1.32248</v>
+      </c>
+      <c r="N385" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -21556,6 +22735,9 @@
         <v>-14.5</v>
       </c>
       <c r="M386" t="n">
+        <v>-16.158865</v>
+      </c>
+      <c r="N386" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -21611,6 +22793,9 @@
         <v>-2.5</v>
       </c>
       <c r="M387" t="n">
+        <v>-4.171345000000001</v>
+      </c>
+      <c r="N387" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -21666,6 +22851,9 @@
         <v>1</v>
       </c>
       <c r="M388" t="n">
+        <v>-0.6706299999999998</v>
+      </c>
+      <c r="N388" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -21721,6 +22909,9 @@
         <v>0.5</v>
       </c>
       <c r="M389" t="n">
+        <v>-1.170565</v>
+      </c>
+      <c r="N389" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -21776,6 +22967,9 @@
         <v>-2</v>
       </c>
       <c r="M390" t="n">
+        <v>-3.67024</v>
+      </c>
+      <c r="N390" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -21831,6 +23025,9 @@
         <v>1.75</v>
       </c>
       <c r="M391" t="n">
+        <v>1.6201235</v>
+      </c>
+      <c r="N391" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -21886,6 +23083,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M392" t="n">
+        <v>0.0701300000000455</v>
+      </c>
+      <c r="N392" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -21941,6 +23141,9 @@
         <v>0.9499999999999886</v>
       </c>
       <c r="M393" t="n">
+        <v>0.8209944999999886</v>
+      </c>
+      <c r="N393" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -21996,6 +23199,9 @@
         <v>0.3999999999999773</v>
       </c>
       <c r="M394" t="n">
+        <v>0.2706499999999773</v>
+      </c>
+      <c r="N394" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -22051,6 +23257,9 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="M395" t="n">
+        <v>-0.0293890000000341</v>
+      </c>
+      <c r="N395" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -22106,6 +23315,9 @@
         <v>-0.4499999999999886</v>
       </c>
       <c r="M396" t="n">
+        <v>-0.5782514999999886</v>
+      </c>
+      <c r="N396" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -22161,6 +23373,9 @@
         <v>0.25</v>
       </c>
       <c r="M397" t="n">
+        <v>0.1213585</v>
+      </c>
+      <c r="N397" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -22216,6 +23431,9 @@
         <v>-0.2999999999999545</v>
       </c>
       <c r="M398" t="n">
+        <v>-0.4285699999999545</v>
+      </c>
+      <c r="N398" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -22271,6 +23489,9 @@
         <v>-0.09999999999996589</v>
       </c>
       <c r="M399" t="n">
+        <v>-0.2286089999999659</v>
+      </c>
+      <c r="N399" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -22326,6 +23547,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M400" t="n">
+        <v>-0.1785115000000114</v>
+      </c>
+      <c r="N400" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -22381,6 +23605,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M401" t="n">
+        <v>0.07130000000004551</v>
+      </c>
+      <c r="N401" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -22436,6 +23663,9 @@
         <v>0.3499999999999659</v>
       </c>
       <c r="M402" t="n">
+        <v>0.2212934999999659</v>
+      </c>
+      <c r="N402" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -22491,6 +23721,9 @@
         <v>-0.1899999999999977</v>
       </c>
       <c r="M403" t="n">
+        <v>-0.2486052999999977</v>
+      </c>
+      <c r="N403" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -22546,6 +23779,9 @@
         <v>0.8199999999999932</v>
       </c>
       <c r="M404" t="n">
+        <v>0.7613283999999932</v>
+      </c>
+      <c r="N404" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -22601,6 +23837,9 @@
         <v>-0.1700000000000159</v>
       </c>
       <c r="M405" t="n">
+        <v>-0.2287353000000159</v>
+      </c>
+      <c r="N405" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -22656,6 +23895,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M406" t="n">
+        <v>-0.4586690000000057</v>
+      </c>
+      <c r="N406" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -22711,6 +23953,9 @@
         <v>-0.210000000000008</v>
       </c>
       <c r="M407" t="n">
+        <v>-0.268758700000008</v>
+      </c>
+      <c r="N407" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -22766,6 +24011,9 @@
         <v>0.4199999999999875</v>
       </c>
       <c r="M408" t="n">
+        <v>0.3612607999999875</v>
+      </c>
+      <c r="N408" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -22821,6 +24069,9 @@
         <v>-0.210000000000008</v>
       </c>
       <c r="M409" t="n">
+        <v>-0.268672900000008</v>
+      </c>
+      <c r="N409" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -22876,6 +24127,9 @@
         <v>-0.289999999999992</v>
       </c>
       <c r="M410" t="n">
+        <v>-0.348571499999992</v>
+      </c>
+      <c r="N410" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -22931,6 +24185,9 @@
         <v>-0.3199999999999932</v>
       </c>
       <c r="M411" t="n">
+        <v>-0.3787261999999932</v>
+      </c>
+      <c r="N411" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -22986,6 +24243,9 @@
         <v>-0.2600000000000193</v>
       </c>
       <c r="M412" t="n">
+        <v>-0.3189186000000193</v>
+      </c>
+      <c r="N412" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -23041,6 +24301,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M413" t="n">
+        <v>-0.3188093999999909</v>
+      </c>
+      <c r="N413" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -23096,6 +24359,9 @@
         <v>0.8799999999999955</v>
       </c>
       <c r="M414" t="n">
+        <v>0.8214479999999955</v>
+      </c>
+      <c r="N414" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -23151,6 +24417,9 @@
         <v>-0.3700000000000045</v>
       </c>
       <c r="M415" t="n">
+        <v>-0.4285949000000045</v>
+      </c>
+      <c r="N415" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -23206,6 +24475,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M416" t="n">
+        <v>-0.08882370000000114</v>
+      </c>
+      <c r="N416" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -23261,6 +24533,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M417" t="n">
+        <v>-0.1088835000000114</v>
+      </c>
+      <c r="N417" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -23316,6 +24591,9 @@
         <v>1</v>
       </c>
       <c r="M418" t="n">
+        <v>0.73519</v>
+      </c>
+      <c r="N418" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -23371,6 +24649,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M419" t="n">
+        <v>-0.6624959999999773</v>
+      </c>
+      <c r="N419" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -23426,6 +24707,9 @@
         <v>1.600000000000023</v>
       </c>
       <c r="M420" t="n">
+        <v>1.337764000000023</v>
+      </c>
+      <c r="N420" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -23481,6 +24765,9 @@
         <v>-0.6000000000000227</v>
       </c>
       <c r="M421" t="n">
+        <v>-0.8626260000000228</v>
+      </c>
+      <c r="N421" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -23536,6 +24823,9 @@
         <v>-1.199999999999932</v>
       </c>
       <c r="M422" t="n">
+        <v>-1.461871999999932</v>
+      </c>
+      <c r="N422" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -23591,6 +24881,9 @@
         <v>0.6000000000000227</v>
       </c>
       <c r="M423" t="n">
+        <v>0.3387780000000228</v>
+      </c>
+      <c r="N423" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -23646,6 +24939,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M424" t="n">
+        <v>-1.860519999999909</v>
+      </c>
+      <c r="N424" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -23701,6 +24997,9 @@
         <v>-0.1999999999999318</v>
       </c>
       <c r="M425" t="n">
+        <v>-0.4608579999999317</v>
+      </c>
+      <c r="N425" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -23756,6 +25055,9 @@
         <v>-1.600000000000023</v>
       </c>
       <c r="M426" t="n">
+        <v>-1.861248000000023</v>
+      </c>
+      <c r="N426" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -23811,6 +25113,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M427" t="n">
+        <v>-1.861819999999909</v>
+      </c>
+      <c r="N427" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -23866,6 +25171,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M428" t="n">
+        <v>-0.6610919999999773</v>
+      </c>
+      <c r="N428" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -23921,6 +25229,9 @@
         <v>-2</v>
       </c>
       <c r="M429" t="n">
+        <v>-2.261352</v>
+      </c>
+      <c r="N429" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -23976,6 +25287,9 @@
         <v>-0.5999999999999091</v>
       </c>
       <c r="M430" t="n">
+        <v>-0.8614299999999091</v>
+      </c>
+      <c r="N430" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -24031,6 +25345,9 @@
         <v>1.599999999999909</v>
       </c>
       <c r="M431" t="n">
+        <v>1.338439999999909</v>
+      </c>
+      <c r="N431" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -24086,6 +25403,9 @@
         <v>0.01399999999999935</v>
       </c>
       <c r="M432" t="n">
+        <v>0.01092003999999935</v>
+      </c>
+      <c r="N432" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -24141,6 +25461,9 @@
         <v>-0.01399999999999935</v>
       </c>
       <c r="M433" t="n">
+        <v>-0.01708021999999935</v>
+      </c>
+      <c r="N433" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -24196,6 +25519,9 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="M434" t="n">
+        <v>0.02192380999999858</v>
+      </c>
+      <c r="N434" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -24251,6 +25577,9 @@
         <v>-0.003000000000000114</v>
       </c>
       <c r="M435" t="n">
+        <v>-0.006082430000000114</v>
+      </c>
+      <c r="N435" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -24306,6 +25635,9 @@
         <v>0.007999999999999119</v>
       </c>
       <c r="M436" t="n">
+        <v>0.004917439999999119</v>
+      </c>
+      <c r="N436" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -24361,6 +25693,9 @@
         <v>-0.01199999999999868</v>
       </c>
       <c r="M437" t="n">
+        <v>-0.01509373999999868</v>
+      </c>
+      <c r="N437" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -24416,6 +25751,9 @@
         <v>-0.0009999999999994458</v>
       </c>
       <c r="M438" t="n">
+        <v>-0.004093349999999446</v>
+      </c>
+      <c r="N438" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -24471,6 +25809,9 @@
         <v>-0.0009999999999994458</v>
       </c>
       <c r="M439" t="n">
+        <v>-0.004098289999999446</v>
+      </c>
+      <c r="N439" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -24526,6 +25867,9 @@
         <v>0.02200000000000024</v>
       </c>
       <c r="M440" t="n">
+        <v>0.01890132000000024</v>
+      </c>
+      <c r="N440" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -24581,6 +25925,9 @@
         <v>-0.001000000000001222</v>
       </c>
       <c r="M441" t="n">
+        <v>-0.004099590000001221</v>
+      </c>
+      <c r="N441" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -24636,6 +25983,9 @@
         <v>-0.006999999999999673</v>
       </c>
       <c r="M442" t="n">
+        <v>-0.01009984999999967</v>
+      </c>
+      <c r="N442" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -24691,6 +26041,9 @@
         <v>0.009999999999999787</v>
       </c>
       <c r="M443" t="n">
+        <v>0.006901059999999787</v>
+      </c>
+      <c r="N443" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -24746,6 +26099,9 @@
         <v>-0.0009999999999994458</v>
       </c>
       <c r="M444" t="n">
+        <v>-0.004097509999999445</v>
+      </c>
+      <c r="N444" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -24801,6 +26157,9 @@
         <v>-0.001000000000001222</v>
       </c>
       <c r="M445" t="n">
+        <v>-0.004098030000001222</v>
+      </c>
+      <c r="N445" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -24856,6 +26215,9 @@
         <v>0.001000000000001222</v>
       </c>
       <c r="M446" t="n">
+        <v>-0.002098029999998778</v>
+      </c>
+      <c r="N446" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -24911,6 +26273,9 @@
         <v>0</v>
       </c>
       <c r="M447" t="n">
+        <v>-0.00309842</v>
+      </c>
+      <c r="N447" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24958,6 +26323,9 @@
         <v>0</v>
       </c>
       <c r="M448" t="n">
+        <v>-0.00309842</v>
+      </c>
+      <c r="N448" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25013,6 +26381,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M449" t="n">
+        <v>-0.1126039999999983</v>
+      </c>
+      <c r="N449" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -25068,6 +26439,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M450" t="n">
+        <v>-0.1725702000000006</v>
+      </c>
+      <c r="N450" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -25123,6 +26497,9 @@
         <v>-0.2000000000000028</v>
       </c>
       <c r="M451" t="n">
+        <v>-0.2325156000000028</v>
+      </c>
+      <c r="N451" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -25178,6 +26555,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M452" t="n">
+        <v>0.02762220000000227</v>
+      </c>
+      <c r="N452" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -25233,6 +26613,9 @@
         <v>-0.2000000000000028</v>
       </c>
       <c r="M453" t="n">
+        <v>-0.2325520000000028</v>
+      </c>
+      <c r="N453" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -25288,6 +26671,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M454" t="n">
+        <v>0.0474947999999983</v>
+      </c>
+      <c r="N454" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -25343,6 +26729,9 @@
         <v>0.01999999999999602</v>
       </c>
       <c r="M455" t="n">
+        <v>-0.01242980000000397</v>
+      </c>
+      <c r="N455" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -25398,6 +26787,9 @@
         <v>-0.3400000000000034</v>
       </c>
       <c r="M456" t="n">
+        <v>-0.3724558000000034</v>
+      </c>
+      <c r="N456" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -25453,6 +26845,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M457" t="n">
+        <v>-0.2925441999999909</v>
+      </c>
+      <c r="N457" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -25508,6 +26903,9 @@
         <v>0.07999999999999829</v>
       </c>
       <c r="M458" t="n">
+        <v>0.0474011999999983</v>
+      </c>
+      <c r="N458" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -25563,6 +26961,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M459" t="n">
+        <v>-0.09261700000000225</v>
+      </c>
+      <c r="N459" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -25618,6 +27019,9 @@
         <v>0.3400000000000034</v>
       </c>
       <c r="M460" t="n">
+        <v>0.3074142000000034</v>
+      </c>
+      <c r="N460" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -25673,6 +27077,9 @@
         <v>-0.1000000000000085</v>
       </c>
       <c r="M461" t="n">
+        <v>-0.1325754000000085</v>
+      </c>
+      <c r="N461" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -25720,6 +27127,9 @@
         <v>0</v>
       </c>
       <c r="M462" t="n">
+        <v>-0.0325676</v>
+      </c>
+      <c r="N462" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25775,6 +27185,9 @@
         <v>0.2000000000000171</v>
       </c>
       <c r="M463" t="n">
+        <v>0.1580152000000171</v>
+      </c>
+      <c r="N463" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -25830,6 +27243,9 @@
         <v>-0.3199999999999932</v>
       </c>
       <c r="M464" t="n">
+        <v>-0.3618443999999932</v>
+      </c>
+      <c r="N464" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -25885,6 +27301,9 @@
         <v>0.5800000000000125</v>
       </c>
       <c r="M465" t="n">
+        <v>0.5385482000000125</v>
+      </c>
+      <c r="N465" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -25940,6 +27359,9 @@
         <v>0.9800000000000182</v>
       </c>
       <c r="M466" t="n">
+        <v>0.9386106000000183</v>
+      </c>
+      <c r="N466" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -25995,6 +27417,9 @@
         <v>0.4599999999999795</v>
       </c>
       <c r="M467" t="n">
+        <v>0.4184233999999795</v>
+      </c>
+      <c r="N467" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -26050,6 +27475,9 @@
         <v>0.03999999999999204</v>
       </c>
       <c r="M468" t="n">
+        <v>-0.001568800000007958</v>
+      </c>
+      <c r="N468" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -26105,6 +27533,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M469" t="n">
+        <v>-0.4415220000000057</v>
+      </c>
+      <c r="N469" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -26160,6 +27591,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M470" t="n">
+        <v>0.1786729999999989</v>
+      </c>
+      <c r="N470" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -26215,6 +27649,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M471" t="n">
+        <v>0.03869640000001251</v>
+      </c>
+      <c r="N471" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -26270,6 +27707,9 @@
         <v>-0.5799999999999841</v>
       </c>
       <c r="M472" t="n">
+        <v>-0.6213893999999841</v>
+      </c>
+      <c r="N472" t="n">
         <v>-0.37</v>
       </c>
     </row>
@@ -26325,6 +27765,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M473" t="n">
+        <v>-0.4415220000000057</v>
+      </c>
+      <c r="N473" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -26380,6 +27823,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M474" t="n">
+        <v>-0.2613425999999989</v>
+      </c>
+      <c r="N474" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -26435,6 +27881,9 @@
         <v>-0.1200000000000045</v>
       </c>
       <c r="M475" t="n">
+        <v>-0.1614232000000045</v>
+      </c>
+      <c r="N475" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -26490,6 +27939,9 @@
         <v>0.5600000000000023</v>
       </c>
       <c r="M476" t="n">
+        <v>0.5185300000000023</v>
+      </c>
+      <c r="N476" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -26545,6 +27997,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M477" t="n">
+        <v>0.05845979999999433</v>
+      </c>
+      <c r="N477" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -26600,6 +28055,9 @@
         <v>0.2750000000000057</v>
       </c>
       <c r="M478" t="n">
+        <v>0.2622723500000057</v>
+      </c>
+      <c r="N478" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -26655,6 +28113,9 @@
         <v>0.154999999999994</v>
       </c>
       <c r="M479" t="n">
+        <v>0.142248949999994</v>
+      </c>
+      <c r="N479" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -26710,6 +28171,9 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="M480" t="n">
+        <v>-0.06771204999999972</v>
+      </c>
+      <c r="N480" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -26765,6 +28229,9 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="M481" t="n">
+        <v>0.007304200000003131</v>
+      </c>
+      <c r="N481" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -26820,6 +28287,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M482" t="n">
+        <v>-0.03267630000000313</v>
+      </c>
+      <c r="N482" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -26875,6 +28345,9 @@
         <v>0.1750000000000043</v>
       </c>
       <c r="M483" t="n">
+        <v>0.1622528500000043</v>
+      </c>
+      <c r="N483" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -26930,6 +28403,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M484" t="n">
+        <v>-0.02271399999999801</v>
+      </c>
+      <c r="N484" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -26985,6 +28461,9 @@
         <v>-0.005000000000002558</v>
       </c>
       <c r="M485" t="n">
+        <v>-0.01767825000000256</v>
+      </c>
+      <c r="N485" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -27040,6 +28519,9 @@
         <v>-0.125</v>
       </c>
       <c r="M486" t="n">
+        <v>-0.13770295</v>
+      </c>
+      <c r="N486" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -27095,6 +28577,9 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="M487" t="n">
+        <v>0.01227364999999858</v>
+      </c>
+      <c r="N487" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -27150,6 +28635,9 @@
         <v>-0.05499999999999972</v>
       </c>
       <c r="M488" t="n">
+        <v>-0.06770814999999972</v>
+      </c>
+      <c r="N488" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -27205,6 +28693,9 @@
         <v>0.03500000000000369</v>
       </c>
       <c r="M489" t="n">
+        <v>0.02229965000000369</v>
+      </c>
+      <c r="N489" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -27260,6 +28751,9 @@
         <v>0.02499999999999858</v>
       </c>
       <c r="M490" t="n">
+        <v>0.01227104999999858</v>
+      </c>
+      <c r="N490" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -27315,6 +28809,9 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="M491" t="n">
+        <v>-0.03773284999999858</v>
+      </c>
+      <c r="N491" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -27362,6 +28859,9 @@
         <v>0</v>
       </c>
       <c r="M492" t="n">
+        <v>-0.0127374</v>
+      </c>
+      <c r="N492" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27417,6 +28917,9 @@
         <v>6.200000000000045</v>
       </c>
       <c r="M493" t="n">
+        <v>5.839926000000045</v>
+      </c>
+      <c r="N493" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -27472,6 +28975,9 @@
         <v>5.200000000000045</v>
       </c>
       <c r="M494" t="n">
+        <v>4.836416000000045</v>
+      </c>
+      <c r="N494" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -27527,6 +29033,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M495" t="n">
+        <v>-1.961659999999909</v>
+      </c>
+      <c r="N495" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -27582,6 +29091,9 @@
         <v>-1</v>
       </c>
       <c r="M496" t="n">
+        <v>-1.360958</v>
+      </c>
+      <c r="N496" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -27637,6 +29149,9 @@
         <v>3.799999999999955</v>
       </c>
       <c r="M497" t="n">
+        <v>3.438937999999955</v>
+      </c>
+      <c r="N497" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -27692,6 +29207,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M498" t="n">
+        <v>-0.5598660000000455</v>
+      </c>
+      <c r="N498" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -27747,6 +29265,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M499" t="n">
+        <v>0.2400299999999091</v>
+      </c>
+      <c r="N499" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -27802,6 +29323,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M500" t="n">
+        <v>0.4400039999999546</v>
+      </c>
+      <c r="N500" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -27857,6 +29381,9 @@
         <v>3.599999999999909</v>
       </c>
       <c r="M501" t="n">
+        <v>3.239899999999909</v>
+      </c>
+      <c r="N501" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -27912,6 +29439,9 @@
         <v>-11</v>
       </c>
       <c r="M502" t="n">
+        <v>-11.35711</v>
+      </c>
+      <c r="N502" t="n">
         <v>-0.8</v>
       </c>
     </row>
@@ -27967,6 +29497,9 @@
         <v>-2.799999999999955</v>
       </c>
       <c r="M503" t="n">
+        <v>-3.154067999999955</v>
+      </c>
+      <c r="N503" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -28022,6 +29555,9 @@
         <v>1.799999999999955</v>
       </c>
       <c r="M504" t="n">
+        <v>1.445853999999955</v>
+      </c>
+      <c r="N504" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -28077,6 +29613,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M505" t="n">
+        <v>-0.5558620000000455</v>
+      </c>
+      <c r="N505" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -28132,6 +29671,9 @@
         <v>0.3999999999998636</v>
       </c>
       <c r="M506" t="n">
+        <v>0.04421599999986361</v>
+      </c>
+      <c r="N506" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -28187,6 +29729,9 @@
         <v>0.2899999999999991</v>
       </c>
       <c r="M507" t="n">
+        <v>0.2744168999999991</v>
+      </c>
+      <c r="N507" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -28242,6 +29787,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M508" t="n">
+        <v>-0.03555060000000312</v>
+      </c>
+      <c r="N508" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -28297,6 +29845,9 @@
         <v>-0.06000000000000227</v>
       </c>
       <c r="M509" t="n">
+        <v>-0.07551420000000227</v>
+      </c>
+      <c r="N509" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -28352,6 +29903,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M510" t="n">
+        <v>-0.0955323999999983</v>
+      </c>
+      <c r="N510" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -28407,6 +29961,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M511" t="n">
+        <v>-0.03553760000000313</v>
+      </c>
+      <c r="N511" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -28462,6 +30019,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M512" t="n">
+        <v>-0.0955193999999983</v>
+      </c>
+      <c r="N512" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -28517,6 +30077,9 @@
         <v>-0.1000000000000014</v>
       </c>
       <c r="M513" t="n">
+        <v>-0.1154960000000014</v>
+      </c>
+      <c r="N513" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -28572,6 +30135,9 @@
         <v>-0.01999999999999602</v>
       </c>
       <c r="M514" t="n">
+        <v>-0.03546999999999602</v>
+      </c>
+      <c r="N514" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -28627,6 +30193,9 @@
         <v>-0.02000000000000313</v>
       </c>
       <c r="M515" t="n">
+        <v>-0.03542060000000313</v>
+      </c>
+      <c r="N515" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -28682,6 +30251,9 @@
         <v>-0.08999999999999631</v>
       </c>
       <c r="M516" t="n">
+        <v>-0.1054348999999963</v>
+      </c>
+      <c r="N516" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -28737,6 +30309,9 @@
         <v>-0.1799999999999997</v>
       </c>
       <c r="M517" t="n">
+        <v>-0.1954881999999997</v>
+      </c>
+      <c r="N517" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -28792,6 +30367,9 @@
         <v>0.03999999999999915</v>
       </c>
       <c r="M518" t="n">
+        <v>0.02451699999999915</v>
+      </c>
+      <c r="N518" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -28847,6 +30425,9 @@
         <v>-0.0800000000000054</v>
       </c>
       <c r="M519" t="n">
+        <v>-0.09552200000000539</v>
+      </c>
+      <c r="N519" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -28902,6 +30483,9 @@
         <v>-0.05000000000000426</v>
       </c>
       <c r="M520" t="n">
+        <v>-0.06555190000000427</v>
+      </c>
+      <c r="N520" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -28957,6 +30541,9 @@
         <v>-0.1499999999999915</v>
       </c>
       <c r="M521" t="n">
+        <v>-0.1751250999999915</v>
+      </c>
+      <c r="N521" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -29012,6 +30599,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M522" t="n">
+        <v>-0.06527719999999204</v>
+      </c>
+      <c r="N522" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -29067,6 +30657,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M523" t="n">
+        <v>-0.1650354000000006</v>
+      </c>
+      <c r="N523" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -29122,6 +30715,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M524" t="n">
+        <v>-0.1851471999999966</v>
+      </c>
+      <c r="N524" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -29177,6 +30773,9 @@
         <v>0.230000000000004</v>
       </c>
       <c r="M525" t="n">
+        <v>0.204838500000004</v>
+      </c>
+      <c r="N525" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -29232,6 +30831,9 @@
         <v>-0.1299999999999955</v>
       </c>
       <c r="M526" t="n">
+        <v>-0.1550990999999955</v>
+      </c>
+      <c r="N526" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -29287,6 +30889,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M527" t="n">
+        <v>-0.1349690999999994</v>
+      </c>
+      <c r="N527" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -29342,6 +30947,9 @@
         <v>-0.009999999999990905</v>
       </c>
       <c r="M528" t="n">
+        <v>-0.0349560999999909</v>
+      </c>
+      <c r="N528" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -29397,6 +31005,9 @@
         <v>0.01000000000000512</v>
       </c>
       <c r="M529" t="n">
+        <v>-0.01495089999999488</v>
+      </c>
+      <c r="N529" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -29452,6 +31063,9 @@
         <v>0</v>
       </c>
       <c r="M530" t="n">
+        <v>-0.025012</v>
+      </c>
+      <c r="N530" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29507,6 +31121,9 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="M531" t="n">
+        <v>0.02500489999999716</v>
+      </c>
+      <c r="N531" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -29562,6 +31179,9 @@
         <v>0.009999999999990905</v>
       </c>
       <c r="M532" t="n">
+        <v>-0.01500030000000909</v>
+      </c>
+      <c r="N532" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -29609,6 +31229,9 @@
         <v>0</v>
       </c>
       <c r="M533" t="n">
+        <v>-0.0250068</v>
+      </c>
+      <c r="N533" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29664,6 +31287,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M534" t="n">
+        <v>-0.05458859999999915</v>
+      </c>
+      <c r="N534" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -29719,6 +31345,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M535" t="n">
+        <v>-0.1045665000000034</v>
+      </c>
+      <c r="N535" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -29774,6 +31403,9 @@
         <v>0.1700000000000017</v>
       </c>
       <c r="M536" t="n">
+        <v>0.1556129000000017</v>
+      </c>
+      <c r="N536" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -29829,6 +31461,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M537" t="n">
+        <v>-0.1744039999999966</v>
+      </c>
+      <c r="N537" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -29884,6 +31519,9 @@
         <v>0.4299999999999997</v>
       </c>
       <c r="M538" t="n">
+        <v>0.4155686999999997</v>
+      </c>
+      <c r="N538" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -29939,6 +31577,9 @@
         <v>2.120000000000005</v>
       </c>
       <c r="M539" t="n">
+        <v>2.082658800000005</v>
+      </c>
+      <c r="N539" t="n">
         <v>1.49</v>
       </c>
     </row>
@@ -29994,6 +31635,9 @@
         <v>-0.3199999999999932</v>
       </c>
       <c r="M540" t="n">
+        <v>-0.3574399999999932</v>
+      </c>
+      <c r="N540" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -30049,6 +31693,9 @@
         <v>-0.1400000000000148</v>
       </c>
       <c r="M541" t="n">
+        <v>-0.1776558000000148</v>
+      </c>
+      <c r="N541" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -30104,6 +31751,9 @@
         <v>0.09999999999999432</v>
       </c>
       <c r="M542" t="n">
+        <v>0.06260419999999432</v>
+      </c>
+      <c r="N542" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -30159,6 +31809,9 @@
         <v>0</v>
       </c>
       <c r="M543" t="n">
+        <v>-0.0373776</v>
+      </c>
+      <c r="N543" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30214,6 +31867,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M544" t="n">
+        <v>-0.1974607999999966</v>
+      </c>
+      <c r="N544" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -30269,6 +31925,9 @@
         <v>0.3199999999999932</v>
       </c>
       <c r="M545" t="n">
+        <v>0.2825651999999932</v>
+      </c>
+      <c r="N545" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -30324,6 +31983,9 @@
         <v>0</v>
       </c>
       <c r="M546" t="n">
+        <v>-0.037154</v>
+      </c>
+      <c r="N546" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30379,6 +32041,9 @@
         <v>-0.6999999999999886</v>
       </c>
       <c r="M547" t="n">
+        <v>-0.7372449999999886</v>
+      </c>
+      <c r="N547" t="n">
         <v>-0.49</v>
       </c>
     </row>
@@ -30434,6 +32099,9 @@
         <v>0.08000000000001251</v>
       </c>
       <c r="M548" t="n">
+        <v>0.04270040000001251</v>
+      </c>
+      <c r="N548" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -30489,6 +32157,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M549" t="n">
+        <v>-0.07738799999999203</v>
+      </c>
+      <c r="N549" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -30544,6 +32215,9 @@
         <v>-0.04999999999999716</v>
       </c>
       <c r="M550" t="n">
+        <v>-0.05521429999999716</v>
+      </c>
+      <c r="N550" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -30599,6 +32273,9 @@
         <v>-0.04500000000000171</v>
       </c>
       <c r="M551" t="n">
+        <v>-0.05020039000000171</v>
+      </c>
+      <c r="N551" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -30654,6 +32331,9 @@
         <v>-0.03699999999999903</v>
       </c>
       <c r="M552" t="n">
+        <v>-0.04219752999999903</v>
+      </c>
+      <c r="N552" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -30709,6 +32389,9 @@
         <v>-0.01999999999999957</v>
       </c>
       <c r="M553" t="n">
+        <v>-0.02517945999999957</v>
+      </c>
+      <c r="N553" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -30764,6 +32447,9 @@
         <v>0.01099999999999923</v>
       </c>
       <c r="M554" t="n">
+        <v>0.00581806999999923</v>
+      </c>
+      <c r="N554" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -30819,6 +32505,9 @@
         <v>0.01800000000000068</v>
       </c>
       <c r="M555" t="n">
+        <v>0.01281872000000068</v>
+      </c>
+      <c r="N555" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -30874,6 +32563,9 @@
         <v>-0.03900000000000148</v>
       </c>
       <c r="M556" t="n">
+        <v>-0.04416945000000148</v>
+      </c>
+      <c r="N556" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -30929,6 +32621,9 @@
         <v>0.0009999999999976694</v>
       </c>
       <c r="M557" t="n">
+        <v>-0.00413695000000233</v>
+      </c>
+      <c r="N557" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -30984,6 +32679,9 @@
         <v>0.2319999999999993</v>
       </c>
       <c r="M558" t="n">
+        <v>0.2268478399999993</v>
+      </c>
+      <c r="N558" t="n">
         <v>1.18</v>
       </c>
     </row>
@@ -31039,6 +32737,9 @@
         <v>-0.01799999999999713</v>
       </c>
       <c r="M559" t="n">
+        <v>-0.02314825999999713</v>
+      </c>
+      <c r="N559" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -31094,6 +32795,9 @@
         <v>-0.03100000000000236</v>
       </c>
       <c r="M560" t="n">
+        <v>-0.03616971000000236</v>
+      </c>
+      <c r="N560" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -31149,6 +32853,9 @@
         <v>-0.05300000000000082</v>
       </c>
       <c r="M561" t="n">
+        <v>-0.05818479000000082</v>
+      </c>
+      <c r="N561" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -31204,6 +32911,9 @@
         <v>0.006999999999997897</v>
       </c>
       <c r="M562" t="n">
+        <v>0.001824569999997897</v>
+      </c>
+      <c r="N562" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -31259,6 +32969,9 @@
         <v>3.050000000000068</v>
       </c>
       <c r="M563" t="n">
+        <v>2.876365500000068</v>
+      </c>
+      <c r="N563" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -31314,6 +33027,9 @@
         <v>-0.6999999999999318</v>
       </c>
       <c r="M564" t="n">
+        <v>-0.8741479999999318</v>
+      </c>
+      <c r="N564" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -31369,6 +33085,9 @@
         <v>-0.5</v>
       </c>
       <c r="M565" t="n">
+        <v>-0.674005</v>
+      </c>
+      <c r="N565" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -31424,6 +33143,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M566" t="n">
+        <v>0.6260209999999545</v>
+      </c>
+      <c r="N566" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -31479,6 +33201,9 @@
         <v>0.7999999999999545</v>
       </c>
       <c r="M567" t="n">
+        <v>0.6260989999999546</v>
+      </c>
+      <c r="N567" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -31534,6 +33259,9 @@
         <v>-0.25</v>
       </c>
       <c r="M568" t="n">
+        <v>-0.4239075</v>
+      </c>
+      <c r="N568" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -31589,6 +33317,9 @@
         <v>-0.75</v>
       </c>
       <c r="M569" t="n">
+        <v>-0.9237125</v>
+      </c>
+      <c r="N569" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -31644,6 +33375,9 @@
         <v>-1.549999999999955</v>
       </c>
       <c r="M570" t="n">
+        <v>-1.723452499999955</v>
+      </c>
+      <c r="N570" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -31699,6 +33433,9 @@
         <v>-2.149999999999977</v>
       </c>
       <c r="M571" t="n">
+        <v>-2.322984499999976</v>
+      </c>
+      <c r="N571" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -31754,6 +33491,9 @@
         <v>-0.75</v>
       </c>
       <c r="M572" t="n">
+        <v>-0.9225685</v>
+      </c>
+      <c r="N572" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -31809,6 +33549,9 @@
         <v>-1.800000000000068</v>
       </c>
       <c r="M573" t="n">
+        <v>-1.973732000000068</v>
+      </c>
+      <c r="N573" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -31864,6 +33607,9 @@
         <v>-2.600000000000023</v>
       </c>
       <c r="M574" t="n">
+        <v>-2.773537000000023</v>
+      </c>
+      <c r="N574" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -31919,6 +33665,9 @@
         <v>2.700000000000045</v>
       </c>
       <c r="M575" t="n">
+        <v>2.526281000000045</v>
+      </c>
+      <c r="N575" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -31974,6 +33723,9 @@
         <v>0.04999999999995453</v>
       </c>
       <c r="M576" t="n">
+        <v>-0.1240115000000455</v>
+      </c>
+      <c r="N576" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -32029,6 +33781,9 @@
         <v>0.3499999999999091</v>
       </c>
       <c r="M577" t="n">
+        <v>0.1759624999999091</v>
+      </c>
+      <c r="N577" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -32084,6 +33839,9 @@
         <v>0.75</v>
       </c>
       <c r="M578" t="n">
+        <v>0.7098989</v>
+      </c>
+      <c r="N578" t="n">
         <v>0.49</v>
       </c>
     </row>
@@ -32139,6 +33897,9 @@
         <v>1.099999999999994</v>
       </c>
       <c r="M579" t="n">
+        <v>1.059775399999994</v>
+      </c>
+      <c r="N579" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -32194,6 +33955,9 @@
         <v>-0.09000000000000341</v>
       </c>
       <c r="M580" t="n">
+        <v>-0.1295707000000034</v>
+      </c>
+      <c r="N580" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -32249,6 +34013,9 @@
         <v>-0.3200000000000216</v>
       </c>
       <c r="M581" t="n">
+        <v>-0.3594836000000216</v>
+      </c>
+      <c r="N581" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -32304,6 +34071,9 @@
         <v>0</v>
       </c>
       <c r="M582" t="n">
+        <v>-0.03941339999999999</v>
+      </c>
+      <c r="N582" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32359,6 +34129,9 @@
         <v>-0.03000000000000114</v>
       </c>
       <c r="M583" t="n">
+        <v>-0.06850730000000113</v>
+      </c>
+      <c r="N583" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -32414,6 +34187,9 @@
         <v>-0.6599999999999966</v>
       </c>
       <c r="M584" t="n">
+        <v>-0.6987009999999966</v>
+      </c>
+      <c r="N584" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -32469,6 +34245,9 @@
         <v>-0.05000000000001137</v>
       </c>
       <c r="M585" t="n">
+        <v>-0.08858530000001136</v>
+      </c>
+      <c r="N585" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -32524,6 +34303,9 @@
         <v>0.1100000000000136</v>
       </c>
       <c r="M586" t="n">
+        <v>0.0714953000000136</v>
+      </c>
+      <c r="N586" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -32579,6 +34361,9 @@
         <v>-0.0003200000000000008</v>
       </c>
       <c r="M587" t="n">
+        <v>-0.0003449704000000008</v>
+      </c>
+      <c r="N587" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -32634,6 +34419,9 @@
         <v>0.0003000000000000086</v>
       </c>
       <c r="M588" t="n">
+        <v>0.0002750270000000086</v>
+      </c>
+      <c r="N588" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -32689,6 +34477,9 @@
         <v>-0.0003799999999999915</v>
       </c>
       <c r="M589" t="n">
+        <v>-0.0004049469999999915</v>
+      </c>
+      <c r="N589" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -32744,6 +34535,9 @@
         <v>-6.000000000000449e-05</v>
       </c>
       <c r="M590" t="n">
+        <v>-8.488980000000448e-05</v>
+      </c>
+      <c r="N590" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -32799,6 +34593,9 @@
         <v>0.0002400000000000041</v>
       </c>
       <c r="M591" t="n">
+        <v>0.0002150868000000041</v>
+      </c>
+      <c r="N591" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -32854,6 +34651,9 @@
         <v>0</v>
       </c>
       <c r="M592" t="n">
+        <v>-2.49184e-05</v>
+      </c>
+      <c r="N592" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32909,6 +34709,9 @@
         <v>0.0004800000000000082</v>
       </c>
       <c r="M593" t="n">
+        <v>0.0004551336000000082</v>
+      </c>
+      <c r="N593" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -32964,6 +34767,9 @@
         <v>0.0001999999999999919</v>
       </c>
       <c r="M594" t="n">
+        <v>0.0001752167999999919</v>
+      </c>
+      <c r="N594" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -33019,6 +34825,9 @@
         <v>-0.0002800000000000025</v>
       </c>
       <c r="M595" t="n">
+        <v>-0.0003047728000000025</v>
+      </c>
+      <c r="N595" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -33074,6 +34883,9 @@
         <v>0.0003399999999999931</v>
       </c>
       <c r="M596" t="n">
+        <v>0.0003152141999999931</v>
+      </c>
+      <c r="N596" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -33129,6 +34941,9 @@
         <v>0.0002599999999999963</v>
       </c>
       <c r="M597" t="n">
+        <v>0.0002351881999999963</v>
+      </c>
+      <c r="N597" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -33184,6 +34999,9 @@
         <v>8.400000000000091</v>
       </c>
       <c r="M598" t="n">
+        <v>7.640579000000091</v>
+      </c>
+      <c r="N598" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -33239,6 +35057,9 @@
         <v>8.300000000000182</v>
       </c>
       <c r="M599" t="n">
+        <v>7.538759000000183</v>
+      </c>
+      <c r="N599" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -33294,6 +35115,9 @@
         <v>9.75</v>
       </c>
       <c r="M600" t="n">
+        <v>8.9927955</v>
+      </c>
+      <c r="N600" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -33349,6 +35173,9 @@
         <v>-1.649999999999636</v>
       </c>
       <c r="M601" t="n">
+        <v>-2.407282499999636</v>
+      </c>
+      <c r="N601" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -33404,6 +35231,9 @@
         <v>-3.650000000000091</v>
       </c>
       <c r="M602" t="n">
+        <v>-4.407984500000091</v>
+      </c>
+      <c r="N602" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -33459,6 +35289,9 @@
         <v>-2.350000000000364</v>
       </c>
       <c r="M603" t="n">
+        <v>-3.107152500000363</v>
+      </c>
+      <c r="N603" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -33514,6 +35347,9 @@
         <v>-3.799999999999727</v>
       </c>
       <c r="M604" t="n">
+        <v>-4.551802999999727</v>
+      </c>
+      <c r="N604" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -33569,6 +35405,9 @@
         <v>1.5</v>
       </c>
       <c r="M605" t="n">
+        <v>0.7451680000000001</v>
+      </c>
+      <c r="N605" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -33624,6 +35463,9 @@
         <v>-0.6000000000003638</v>
       </c>
       <c r="M606" t="n">
+        <v>-1.354910000000364</v>
+      </c>
+      <c r="N606" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -33669,10 +35511,19 @@
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
-      <c r="M607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>0</v>
+      </c>
+      <c r="K607" t="n">
+        <v>0</v>
+      </c>
+      <c r="L607" t="n">
+        <v>0</v>
+      </c>
+      <c r="M607" t="n">
+        <v>0</v>
+      </c>
+      <c r="N607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -33726,6 +35577,9 @@
         <v>-0.3600000000000136</v>
       </c>
       <c r="M608" t="n">
+        <v>-0.4321552000000136</v>
+      </c>
+      <c r="N608" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -33781,6 +35635,9 @@
         <v>-0.5799999999999841</v>
       </c>
       <c r="M609" t="n">
+        <v>-0.6523813999999841</v>
+      </c>
+      <c r="N609" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -33836,6 +35693,9 @@
         <v>0.67999999999995</v>
       </c>
       <c r="M610" t="n">
+        <v>0.6074105999999501</v>
+      </c>
+      <c r="N610" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -33891,6 +35751,9 @@
         <v>-0.3700000000000045</v>
       </c>
       <c r="M611" t="n">
+        <v>-0.4424373000000045</v>
+      </c>
+      <c r="N611" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -33946,6 +35809,9 @@
         <v>0.1500000000000341</v>
       </c>
       <c r="M612" t="n">
+        <v>0.07748730000003412</v>
+      </c>
+      <c r="N612" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -34001,6 +35867,9 @@
         <v>-0.3400000000000318</v>
       </c>
       <c r="M613" t="n">
+        <v>-0.4127844000000318</v>
+      </c>
+      <c r="N613" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -34056,6 +35925,9 @@
         <v>1.180000000000007</v>
       </c>
       <c r="M614" t="n">
+        <v>1.107124600000007</v>
+      </c>
+      <c r="N614" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -34111,6 +35983,9 @@
         <v>0.4399999999999977</v>
       </c>
       <c r="M615" t="n">
+        <v>0.3670127999999978</v>
+      </c>
+      <c r="N615" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -34166,6 +36041,9 @@
         <v>-0.2100000000000364</v>
       </c>
       <c r="M616" t="n">
+        <v>-0.2830951000000364</v>
+      </c>
+      <c r="N616" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -34213,6 +36091,9 @@
         <v>0</v>
       </c>
       <c r="M617" t="n">
+        <v>-0.07312759999999999</v>
+      </c>
+      <c r="N617" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34268,6 +36149,9 @@
         <v>-0.4200000000000017</v>
       </c>
       <c r="M618" t="n">
+        <v>-0.4530772000000017</v>
+      </c>
+      <c r="N618" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -34323,6 +36207,9 @@
         <v>-0.2800000000000011</v>
       </c>
       <c r="M619" t="n">
+        <v>-0.3130928000000011</v>
+      </c>
+      <c r="N619" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -34378,6 +36265,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M620" t="n">
+        <v>0.02681360000000227</v>
+      </c>
+      <c r="N620" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -34433,6 +36323,9 @@
         <v>-0.1200000000000188</v>
       </c>
       <c r="M621" t="n">
+        <v>-0.1532852000000188</v>
+      </c>
+      <c r="N621" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -34488,6 +36381,9 @@
         <v>0.4299999999999926</v>
       </c>
       <c r="M622" t="n">
+        <v>0.3966926999999926</v>
+      </c>
+      <c r="N622" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -34543,6 +36439,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M623" t="n">
+        <v>-0.3333710000000114</v>
+      </c>
+      <c r="N623" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -34590,6 +36489,9 @@
         <v>0</v>
       </c>
       <c r="M624" t="n">
+        <v>-0.03343599999999999</v>
+      </c>
+      <c r="N624" t="n">
         <v>0</v>
       </c>
     </row>
@@ -34645,6 +36547,9 @@
         <v>20.5</v>
       </c>
       <c r="M625" t="n">
+        <v>18.833725</v>
+      </c>
+      <c r="N625" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -34700,6 +36605,9 @@
         <v>-15.5</v>
       </c>
       <c r="M626" t="n">
+        <v>-17.159385</v>
+      </c>
+      <c r="N626" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -34755,6 +36663,9 @@
         <v>-15</v>
       </c>
       <c r="M627" t="n">
+        <v>-16.66582</v>
+      </c>
+      <c r="N627" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -34810,6 +36721,9 @@
         <v>-8.5</v>
       </c>
       <c r="M628" t="n">
+        <v>-10.164455</v>
+      </c>
+      <c r="N628" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -34865,6 +36779,9 @@
         <v>-11.5</v>
       </c>
       <c r="M629" t="n">
+        <v>-13.180055</v>
+      </c>
+      <c r="N629" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -34920,6 +36837,9 @@
         <v>-11.5</v>
       </c>
       <c r="M630" t="n">
+        <v>-13.183045</v>
+      </c>
+      <c r="N630" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -34967,6 +36887,9 @@
         <v>0</v>
       </c>
       <c r="M631" t="n">
+        <v>-1.68649</v>
+      </c>
+      <c r="N631" t="n">
         <v>0</v>
       </c>
     </row>
@@ -35022,6 +36945,9 @@
         <v>0.9000000000000341</v>
       </c>
       <c r="M632" t="n">
+        <v>0.7715860000000341</v>
+      </c>
+      <c r="N632" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -35077,6 +37003,9 @@
         <v>0.09999999999996589</v>
       </c>
       <c r="M633" t="n">
+        <v>-0.02802400000003409</v>
+      </c>
+      <c r="N633" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -35132,6 +37061,9 @@
         <v>-0.9500000000000455</v>
       </c>
       <c r="M634" t="n">
+        <v>-1.078472500000045</v>
+      </c>
+      <c r="N634" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -35187,6 +37119,9 @@
         <v>-0.8499999999999659</v>
       </c>
       <c r="M635" t="n">
+        <v>-0.978966499999966</v>
+      </c>
+      <c r="N635" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -35242,6 +37177,9 @@
         <v>-1</v>
       </c>
       <c r="M636" t="n">
+        <v>-1.12935</v>
+      </c>
+      <c r="N636" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -35297,6 +37235,9 @@
         <v>-0.75</v>
       </c>
       <c r="M637" t="n">
+        <v>-0.8797335000000001</v>
+      </c>
+      <c r="N637" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -35352,6 +37293,9 @@
         <v>1.399999999999977</v>
       </c>
       <c r="M638" t="n">
+        <v>1.270389999999977</v>
+      </c>
+      <c r="N638" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -35407,6 +37351,9 @@
         <v>0.5500000000000114</v>
       </c>
       <c r="M639" t="n">
+        <v>0.4201365000000113</v>
+      </c>
+      <c r="N639" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -35462,6 +37409,9 @@
         <v>-1.050000000000011</v>
       </c>
       <c r="M640" t="n">
+        <v>-1.180799500000011</v>
+      </c>
+      <c r="N640" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -35517,6 +37467,9 @@
         <v>-0.3000000000000114</v>
       </c>
       <c r="M641" t="n">
+        <v>-0.4306110000000115</v>
+      </c>
+      <c r="N641" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -35572,6 +37525,9 @@
         <v>-0.25</v>
       </c>
       <c r="M642" t="n">
+        <v>-0.3807085</v>
+      </c>
+      <c r="N642" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -35627,6 +37583,9 @@
         <v>-0.7000000000000455</v>
       </c>
       <c r="M643" t="n">
+        <v>-0.8309100000000454</v>
+      </c>
+      <c r="N643" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -35682,6 +37641,9 @@
         <v>0.3499999999999943</v>
       </c>
       <c r="M644" t="n">
+        <v>0.2919198999999943</v>
+      </c>
+      <c r="N644" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -35737,6 +37699,9 @@
         <v>-0.4400000000000261</v>
       </c>
       <c r="M645" t="n">
+        <v>-0.4981386000000261</v>
+      </c>
+      <c r="N645" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -35792,6 +37757,9 @@
         <v>0.1999999999999886</v>
       </c>
       <c r="M646" t="n">
+        <v>0.1417339999999886</v>
+      </c>
+      <c r="N646" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -35847,6 +37815,9 @@
         <v>0.05999999999997385</v>
       </c>
       <c r="M647" t="n">
+        <v>0.001528599999973856</v>
+      </c>
+      <c r="N647" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -35902,6 +37873,9 @@
         <v>-0.6999999999999886</v>
       </c>
       <c r="M648" t="n">
+        <v>-0.7586065999999886</v>
+      </c>
+      <c r="N648" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -35957,6 +37931,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M649" t="n">
+        <v>-0.1584895999999943</v>
+      </c>
+      <c r="N649" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36012,6 +37989,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M650" t="n">
+        <v>-0.2786325999999989</v>
+      </c>
+      <c r="N650" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -36067,6 +38047,9 @@
         <v>-0.2299999999999898</v>
       </c>
       <c r="M651" t="n">
+        <v>-0.2887092999999898</v>
+      </c>
+      <c r="N651" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -36122,6 +38105,9 @@
         <v>3.399999999999977</v>
       </c>
       <c r="M652" t="n">
+        <v>3.140025999999977</v>
+      </c>
+      <c r="N652" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -36177,6 +38163,9 @@
         <v>-1.599999999999909</v>
       </c>
       <c r="M653" t="n">
+        <v>-1.860519999999909</v>
+      </c>
+      <c r="N653" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -36232,6 +38221,9 @@
         <v>-0.3999999999999773</v>
       </c>
       <c r="M654" t="n">
+        <v>-0.6609359999999773</v>
+      </c>
+      <c r="N654" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -36287,6 +38279,9 @@
         <v>4.800000000000068</v>
       </c>
       <c r="M655" t="n">
+        <v>4.538908000000069</v>
+      </c>
+      <c r="N655" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -36342,6 +38337,9 @@
         <v>1.600000000000023</v>
       </c>
       <c r="M656" t="n">
+        <v>1.339064000000023</v>
+      </c>
+      <c r="N656" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -36397,6 +38395,9 @@
         <v>4.200000000000045</v>
       </c>
       <c r="M657" t="n">
+        <v>3.938986000000045</v>
+      </c>
+      <c r="N657" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -36452,6 +38453,9 @@
         <v>-2</v>
       </c>
       <c r="M658" t="n">
+        <v>-2.262028</v>
+      </c>
+      <c r="N658" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -36507,6 +38511,9 @@
         <v>-0.7999999999999545</v>
       </c>
       <c r="M659" t="n">
+        <v>-1.061975999999955</v>
+      </c>
+      <c r="N659" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -36562,6 +38569,9 @@
         <v>2.399999999999977</v>
       </c>
       <c r="M660" t="n">
+        <v>2.137711999999977</v>
+      </c>
+      <c r="N660" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -36617,6 +38627,9 @@
         <v>-1.399999999999977</v>
       </c>
       <c r="M661" t="n">
+        <v>-1.662885999999977</v>
+      </c>
+      <c r="N661" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -36664,6 +38677,9 @@
         <v>0</v>
       </c>
       <c r="M662" t="n">
+        <v>-0.263172</v>
+      </c>
+      <c r="N662" t="n">
         <v>0</v>
       </c>
     </row>
@@ -36719,6 +38735,9 @@
         <v>0.009999999999999787</v>
       </c>
       <c r="M663" t="n">
+        <v>0.006917179999999787</v>
+      </c>
+      <c r="N663" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -36774,6 +38793,9 @@
         <v>0.02200000000000024</v>
       </c>
       <c r="M664" t="n">
+        <v>0.01891952000000025</v>
+      </c>
+      <c r="N664" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -36829,6 +38851,9 @@
         <v>-0.00700000000000145</v>
       </c>
       <c r="M665" t="n">
+        <v>-0.01008451000000145</v>
+      </c>
+      <c r="N665" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -36884,6 +38909,9 @@
         <v>0.01500000000000057</v>
       </c>
       <c r="M666" t="n">
+        <v>0.01191471000000057</v>
+      </c>
+      <c r="N666" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -36939,6 +38967,9 @@
         <v>0.004000000000001336</v>
       </c>
       <c r="M667" t="n">
+        <v>0.000904960000001336</v>
+      </c>
+      <c r="N667" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -36994,6 +39025,9 @@
         <v>0.01900000000000013</v>
       </c>
       <c r="M668" t="n">
+        <v>0.01590353000000013</v>
+      </c>
+      <c r="N668" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -37049,6 +39083,9 @@
         <v>-0.001000000000001222</v>
       </c>
       <c r="M669" t="n">
+        <v>-0.004096990000001222</v>
+      </c>
+      <c r="N669" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -37104,6 +39141,9 @@
         <v>0.02099999999999902</v>
       </c>
       <c r="M670" t="n">
+        <v>0.01790404999999902</v>
+      </c>
+      <c r="N670" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -37151,6 +39191,9 @@
         <v>0</v>
       </c>
       <c r="M671" t="n">
+        <v>-0.00309244</v>
+      </c>
+      <c r="N671" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37206,6 +39249,9 @@
         <v>0</v>
       </c>
       <c r="M672" t="n">
+        <v>-0.03196959999999999</v>
+      </c>
+      <c r="N672" t="n">
         <v>0</v>
       </c>
     </row>
@@ -37261,6 +39307,9 @@
         <v>0.6199999999999903</v>
       </c>
       <c r="M673" t="n">
+        <v>0.5880173999999903</v>
+      </c>
+      <c r="N673" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -37316,6 +39365,9 @@
         <v>0.4799999999999898</v>
       </c>
       <c r="M674" t="n">
+        <v>0.4479107999999898</v>
+      </c>
+      <c r="N674" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -37371,6 +39423,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M675" t="n">
+        <v>-0.2520241999999989</v>
+      </c>
+      <c r="N675" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -37426,6 +39481,9 @@
         <v>0.460000000000008</v>
       </c>
       <c r="M676" t="n">
+        <v>0.428048600000008</v>
+      </c>
+      <c r="N676" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -37481,6 +39539,9 @@
         <v>-0.1599999999999966</v>
       </c>
       <c r="M677" t="n">
+        <v>-0.1919799999999966</v>
+      </c>
+      <c r="N677" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -37536,6 +39597,9 @@
         <v>0.519999999999996</v>
       </c>
       <c r="M678" t="n">
+        <v>0.4879523999999961</v>
+      </c>
+      <c r="N678" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -37591,6 +39655,9 @@
         <v>0.1000000000000227</v>
       </c>
       <c r="M679" t="n">
+        <v>0.05885500000002269</v>
+      </c>
+      <c r="N679" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -37646,6 +39713,9 @@
         <v>-0.4000000000000057</v>
       </c>
       <c r="M680" t="n">
+        <v>-0.4412308000000056</v>
+      </c>
+      <c r="N680" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -37701,6 +39771,9 @@
         <v>-0.4599999999999795</v>
       </c>
       <c r="M681" t="n">
+        <v>-0.5013321999999795</v>
+      </c>
+      <c r="N681" t="n">
         <v>-0.29</v>
       </c>
     </row>
@@ -37756,6 +39829,9 @@
         <v>-0.9000000000000057</v>
       </c>
       <c r="M682" t="n">
+        <v>-0.9415090000000057</v>
+      </c>
+      <c r="N682" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -37811,6 +39887,9 @@
         <v>0.2199999999999989</v>
       </c>
       <c r="M683" t="n">
+        <v>0.1786729999999989</v>
+      </c>
+      <c r="N683" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -37866,6 +39945,9 @@
         <v>-0.2599999999999909</v>
       </c>
       <c r="M684" t="n">
+        <v>-0.3015349999999909</v>
+      </c>
+      <c r="N684" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -37921,6 +40003,9 @@
         <v>0.4199999999999875</v>
       </c>
       <c r="M685" t="n">
+        <v>0.3784181999999875</v>
+      </c>
+      <c r="N685" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -37976,6 +40061,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M686" t="n">
+        <v>-0.2614985999999989</v>
+      </c>
+      <c r="N686" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -38031,6 +40119,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M687" t="n">
+        <v>-0.2616441999999989</v>
+      </c>
+      <c r="N687" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -38078,6 +40169,9 @@
         <v>0</v>
       </c>
       <c r="M688" t="n">
+        <v>-0.0417976</v>
+      </c>
+      <c r="N688" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38133,6 +40227,9 @@
         <v>-0.02499999999999858</v>
       </c>
       <c r="M689" t="n">
+        <v>-0.03760024999999858</v>
+      </c>
+      <c r="N689" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -38188,6 +40285,9 @@
         <v>-0.02999999999999403</v>
       </c>
       <c r="M690" t="n">
+        <v>-0.04261909999999403</v>
+      </c>
+      <c r="N690" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -38243,6 +40343,9 @@
         <v>0.07000000000000028</v>
       </c>
       <c r="M691" t="n">
+        <v>0.05739260000000028</v>
+      </c>
+      <c r="N691" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -38298,6 +40401,9 @@
         <v>-0.09999999999999432</v>
       </c>
       <c r="M692" t="n">
+        <v>-0.1126567999999943</v>
+      </c>
+      <c r="N692" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -38353,6 +40459,9 @@
         <v>-0.05999999999999517</v>
       </c>
       <c r="M693" t="n">
+        <v>-0.07269449999999517</v>
+      </c>
+      <c r="N693" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -38408,6 +40517,9 @@
         <v>-0.00999999999999801</v>
       </c>
       <c r="M694" t="n">
+        <v>-0.02270099999999801</v>
+      </c>
+      <c r="N694" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -38463,6 +40575,9 @@
         <v>-0.01500000000000057</v>
       </c>
       <c r="M695" t="n">
+        <v>-0.02768995000000057</v>
+      </c>
+      <c r="N695" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -38518,6 +40633,9 @@
         <v>0.2700000000000031</v>
       </c>
       <c r="M696" t="n">
+        <v>0.2572808000000031</v>
+      </c>
+      <c r="N696" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -38573,6 +40691,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M697" t="n">
+        <v>-0.5535740000000454</v>
+      </c>
+      <c r="N697" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -38628,6 +40749,9 @@
         <v>5</v>
       </c>
       <c r="M698" t="n">
+        <v>4.64653</v>
+      </c>
+      <c r="N698" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -38683,6 +40807,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M699" t="n">
+        <v>-0.1558619999999545</v>
+      </c>
+      <c r="N699" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -38738,6 +40865,9 @@
         <v>0</v>
       </c>
       <c r="M700" t="n">
+        <v>-0.356876</v>
+      </c>
+      <c r="N700" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38793,6 +40923,9 @@
         <v>1</v>
       </c>
       <c r="M701" t="n">
+        <v>0.64289</v>
+      </c>
+      <c r="N701" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -38848,6 +40981,9 @@
         <v>-0.2000000000000455</v>
       </c>
       <c r="M702" t="n">
+        <v>-0.5567460000000455</v>
+      </c>
+      <c r="N702" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -38903,6 +41039,9 @@
         <v>-2</v>
       </c>
       <c r="M703" t="n">
+        <v>-2.358228</v>
+      </c>
+      <c r="N703" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -38958,6 +41097,9 @@
         <v>-2.200000000000045</v>
       </c>
       <c r="M704" t="n">
+        <v>-2.559346000000045</v>
+      </c>
+      <c r="N704" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -39013,6 +41155,9 @@
         <v>0.2000000000000455</v>
       </c>
       <c r="M705" t="n">
+        <v>-0.1604379999999545</v>
+      </c>
+      <c r="N705" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -39060,6 +41205,9 @@
         <v>0</v>
       </c>
       <c r="M706" t="n">
+        <v>-0.359268</v>
+      </c>
+      <c r="N706" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39115,6 +41263,9 @@
         <v>-0.1099999999999994</v>
       </c>
       <c r="M707" t="n">
+        <v>-0.1255960999999994</v>
+      </c>
+      <c r="N707" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -39170,6 +41321,9 @@
         <v>0.02000000000000313</v>
       </c>
       <c r="M708" t="n">
+        <v>0.004527400000003131</v>
+      </c>
+      <c r="N708" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -39225,6 +41379,9 @@
         <v>-0.3599999999999994</v>
       </c>
       <c r="M709" t="n">
+        <v>-0.3756025999999994</v>
+      </c>
+      <c r="N709" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -39280,6 +41437,9 @@
         <v>0.3100000000000023</v>
       </c>
       <c r="M710" t="n">
+        <v>0.2943519000000023</v>
+      </c>
+      <c r="N710" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -39335,6 +41495,9 @@
         <v>0.1900000000000048</v>
       </c>
       <c r="M711" t="n">
+        <v>0.1743727000000048</v>
+      </c>
+      <c r="N711" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -39390,6 +41553,9 @@
         <v>0.2100000000000009</v>
       </c>
       <c r="M712" t="n">
+        <v>0.1941751000000009</v>
+      </c>
+      <c r="N712" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -39445,6 +41611,9 @@
         <v>-0.1600000000000037</v>
       </c>
       <c r="M713" t="n">
+        <v>-0.1758106000000037</v>
+      </c>
+      <c r="N713" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -39500,6 +41669,9 @@
         <v>0.06000000000000227</v>
       </c>
       <c r="M714" t="n">
+        <v>0.03511280000000227</v>
+      </c>
+      <c r="N714" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -39555,6 +41727,9 @@
         <v>-0.2399999999999949</v>
       </c>
       <c r="M715" t="n">
+        <v>-0.2648923999999949</v>
+      </c>
+      <c r="N715" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -39610,6 +41785,9 @@
         <v>-0.230000000000004</v>
       </c>
       <c r="M716" t="n">
+        <v>-0.254982100000004</v>
+      </c>
+      <c r="N716" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -39665,6 +41843,9 @@
         <v>0.1599999999999966</v>
       </c>
       <c r="M717" t="n">
+        <v>0.1348865999999966</v>
+      </c>
+      <c r="N717" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -39720,6 +41901,9 @@
         <v>-0.3199999999999932</v>
       </c>
       <c r="M718" t="n">
+        <v>-0.3450691999999932</v>
+      </c>
+      <c r="N718" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -39775,6 +41959,9 @@
         <v>0.05000000000001137</v>
       </c>
       <c r="M719" t="n">
+        <v>0.02484110000001137</v>
+      </c>
+      <c r="N719" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -39830,6 +42017,9 @@
         <v>-0.1499999999999915</v>
       </c>
       <c r="M720" t="n">
+        <v>-0.1750834999999915</v>
+      </c>
+      <c r="N720" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -39885,6 +42075,9 @@
         <v>-0.1400000000000006</v>
       </c>
       <c r="M721" t="n">
+        <v>-0.1651836000000006</v>
+      </c>
+      <c r="N721" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -39940,6 +42133,9 @@
         <v>-0.1799999999999926</v>
       </c>
       <c r="M722" t="n">
+        <v>-0.2054253999999926</v>
+      </c>
+      <c r="N722" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -39995,6 +42191,9 @@
         <v>0.1400000000000006</v>
       </c>
       <c r="M723" t="n">
+        <v>0.1145642000000006</v>
+      </c>
+      <c r="N723" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -40050,6 +42249,9 @@
         <v>0.4900000000000091</v>
       </c>
       <c r="M724" t="n">
+        <v>0.4645239000000091</v>
+      </c>
+      <c r="N724" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -40097,6 +42299,9 @@
         <v>0</v>
       </c>
       <c r="M725" t="n">
+        <v>-0.0255086</v>
+      </c>
+      <c r="N725" t="n">
         <v>0</v>
       </c>
     </row>
@@ -40152,6 +42357,9 @@
         <v>0.3200000000000003</v>
       </c>
       <c r="M726" t="n">
+        <v>0.3056142000000003</v>
+      </c>
+      <c r="N726" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -40207,6 +42415,9 @@
         <v>-0.03999999999999915</v>
       </c>
       <c r="M727" t="n">
+        <v>-0.05440399999999915</v>
+      </c>
+      <c r="N727" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -40262,6 +42473,9 @@
         <v>0.02999999999999403</v>
       </c>
       <c r="M728" t="n">
+        <v>0.01559729999999403</v>
+      </c>
+      <c r="N728" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -40317,6 +42531,9 @@
         <v>-0.4699999999999989</v>
       </c>
       <c r="M729" t="n">
+        <v>-0.4845066999999989</v>
+      </c>
+      <c r="N729" t="n">
         <v>-0.8500000000000001</v>
       </c>
     </row>
@@ -40372,6 +42589,9 @@
         <v>0.04999999999999716</v>
       </c>
       <c r="M730" t="n">
+        <v>0.03546209999999716</v>
+      </c>
+      <c r="N730" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -40427,6 +42647,9 @@
         <v>0.7199999999999989</v>
       </c>
       <c r="M731" t="n">
+        <v>0.6827835999999989</v>
+      </c>
+      <c r="N731" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -40482,6 +42705,9 @@
         <v>-0.08000000000001251</v>
       </c>
       <c r="M732" t="n">
+        <v>-0.1177624000000125</v>
+      </c>
+      <c r="N732" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -40537,6 +42763,9 @@
         <v>-0.03999999999999204</v>
       </c>
       <c r="M733" t="n">
+        <v>-0.07759079999999204</v>
+      </c>
+      <c r="N733" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -40592,6 +42821,9 @@
         <v>-0.2600000000000193</v>
       </c>
       <c r="M734" t="n">
+        <v>-0.2978898000000193</v>
+      </c>
+      <c r="N734" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -40647,6 +42879,9 @@
         <v>-0.2199999999999989</v>
       </c>
       <c r="M735" t="n">
+        <v>-0.2579781999999989</v>
+      </c>
+      <c r="N735" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -40702,6 +42937,9 @@
         <v>0.09199999999999875</v>
       </c>
       <c r="M736" t="n">
+        <v>0.08690061999999875</v>
+      </c>
+      <c r="N736" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -40757,6 +42995,9 @@
         <v>-0.1110000000000007</v>
       </c>
       <c r="M737" t="n">
+        <v>-0.1161218700000007</v>
+      </c>
+      <c r="N737" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -40812,6 +43053,9 @@
         <v>-0.07999999999999829</v>
       </c>
       <c r="M738" t="n">
+        <v>-0.08513265999999829</v>
+      </c>
+      <c r="N738" t="n">
         <v>-0.41</v>
       </c>
     </row>
@@ -40867,6 +43111,9 @@
         <v>-0.06400000000000006</v>
       </c>
       <c r="M739" t="n">
+        <v>-0.06912538000000006</v>
+      </c>
+      <c r="N739" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -40922,6 +43169,9 @@
         <v>-0.08000000000000185</v>
       </c>
       <c r="M740" t="n">
+        <v>-0.08514904000000184</v>
+      </c>
+      <c r="N740" t="n">
         <v>-0.4</v>
       </c>
     </row>
@@ -40977,6 +43227,9 @@
         <v>-0.03500000000000014</v>
       </c>
       <c r="M741" t="n">
+        <v>-0.04013565000000014</v>
+      </c>
+      <c r="N741" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -41032,6 +43285,9 @@
         <v>0.1189999999999998</v>
       </c>
       <c r="M742" t="n">
+        <v>0.1138235299999998</v>
+      </c>
+      <c r="N742" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -41087,6 +43343,9 @@
         <v>2.600000000000023</v>
       </c>
       <c r="M743" t="n">
+        <v>2.426242000000023</v>
+      </c>
+      <c r="N743" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -41142,6 +43401,9 @@
         <v>0.5999999999999091</v>
       </c>
       <c r="M744" t="n">
+        <v>0.4272299999999091</v>
+      </c>
+      <c r="N744" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -41197,6 +43459,9 @@
         <v>-0.9500000000000455</v>
       </c>
       <c r="M745" t="n">
+        <v>-1.122568500000046</v>
+      </c>
+      <c r="N745" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -41252,6 +43517,9 @@
         <v>4.700000000000045</v>
       </c>
       <c r="M746" t="n">
+        <v>4.527035000000044</v>
+      </c>
+      <c r="N746" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -41307,6 +43575,9 @@
         <v>2.649999999999977</v>
       </c>
       <c r="M747" t="n">
+        <v>2.476313499999977</v>
+      </c>
+      <c r="N747" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -41362,6 +43633,9 @@
         <v>-0.25</v>
       </c>
       <c r="M748" t="n">
+        <v>-0.4237514999999999</v>
+      </c>
+      <c r="N748" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -41417,6 +43691,9 @@
         <v>-1.25</v>
       </c>
       <c r="M749" t="n">
+        <v>-1.4241155</v>
+      </c>
+      <c r="N749" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -41472,6 +43749,9 @@
         <v>-2.25</v>
       </c>
       <c r="M750" t="n">
+        <v>-2.4239335</v>
+      </c>
+      <c r="N750" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -41519,6 +43799,9 @@
         <v>0</v>
       </c>
       <c r="M751" t="n">
+        <v>-0.174876</v>
+      </c>
+      <c r="N751" t="n">
         <v>0</v>
       </c>
     </row>
@@ -41574,6 +43857,9 @@
         <v>-0.6500000000000057</v>
       </c>
       <c r="M752" t="n">
+        <v>-0.6882343000000057</v>
+      </c>
+      <c r="N752" t="n">
         <v>-0.44</v>
       </c>
     </row>
@@ -41629,6 +43915,9 @@
         <v>-0.4699999999999989</v>
       </c>
       <c r="M753" t="n">
+        <v>-0.5079170999999989</v>
+      </c>
+      <c r="N753" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -41684,6 +43973,9 @@
         <v>2.460000000000008</v>
       </c>
       <c r="M754" t="n">
+        <v>2.421928200000008</v>
+      </c>
+      <c r="N754" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -41739,6 +44031,9 @@
         <v>-0.06999999999999318</v>
       </c>
       <c r="M755" t="n">
+        <v>-0.1083122999999932</v>
+      </c>
+      <c r="N755" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -41794,6 +44089,9 @@
         <v>0.5600000000000023</v>
       </c>
       <c r="M756" t="n">
+        <v>0.5205008000000023</v>
+      </c>
+      <c r="N756" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -41849,6 +44147,9 @@
         <v>-0.2300000000000182</v>
       </c>
       <c r="M757" t="n">
+        <v>-0.2696513000000182</v>
+      </c>
+      <c r="N757" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -41904,6 +44205,9 @@
         <v>3.999999999999837e-05</v>
       </c>
       <c r="M758" t="n">
+        <v>1.517519999999837e-05</v>
+      </c>
+      <c r="N758" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -41959,6 +44263,9 @@
         <v>-0.0001000000000000029</v>
       </c>
       <c r="M759" t="n">
+        <v>-0.0001247494000000029</v>
+      </c>
+      <c r="N759" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -42014,6 +44321,9 @@
         <v>0.0005399999999999988</v>
       </c>
       <c r="M760" t="n">
+        <v>0.0005152245999999988</v>
+      </c>
+      <c r="N760" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -42069,6 +44379,9 @@
         <v>-6.000000000000449e-05</v>
       </c>
       <c r="M761" t="n">
+        <v>-8.491060000000449e-05</v>
+      </c>
+      <c r="N761" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -42124,6 +44437,9 @@
         <v>-0.000340000000000007</v>
       </c>
       <c r="M762" t="n">
+        <v>-0.0003650406000000071</v>
+      </c>
+      <c r="N762" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -42179,6 +44495,9 @@
         <v>2.000000000000612e-05</v>
       </c>
       <c r="M763" t="n">
+        <v>-5.165399999993879e-06</v>
+      </c>
+      <c r="N763" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -42234,6 +44553,9 @@
         <v>0.0001799999999999996</v>
       </c>
       <c r="M764" t="n">
+        <v>0.0001548137999999996</v>
+      </c>
+      <c r="N764" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -42289,6 +44611,9 @@
         <v>-0.0005799999999999972</v>
       </c>
       <c r="M765" t="n">
+        <v>-0.0006052381999999973</v>
+      </c>
+      <c r="N765" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -42344,6 +44669,9 @@
         <v>0.0007199999999999984</v>
       </c>
       <c r="M766" t="n">
+        <v>0.0006947279999999984</v>
+      </c>
+      <c r="N766" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -42399,6 +44727,9 @@
         <v>-7.999999999999674e-05</v>
       </c>
       <c r="M767" t="n">
+        <v>-0.0001053083999999968</v>
+      </c>
+      <c r="N767" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -42454,6 +44785,9 @@
         <v>0.0002400000000000041</v>
       </c>
       <c r="M768" t="n">
+        <v>0.0002147332000000041</v>
+      </c>
+      <c r="N768" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -42501,6 +44835,9 @@
         <v>0</v>
       </c>
       <c r="M769" t="n">
+        <v>-2.54228e-05</v>
+      </c>
+      <c r="N769" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42556,6 +44893,9 @@
         <v>-9</v>
       </c>
       <c r="M770" t="n">
+        <v>-9.748748000000001</v>
+      </c>
+      <c r="N770" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -42611,6 +44951,9 @@
         <v>-2.300000000000182</v>
       </c>
       <c r="M771" t="n">
+        <v>-3.051036000000182</v>
+      </c>
+      <c r="N771" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -42666,6 +45009,9 @@
         <v>-2.75</v>
       </c>
       <c r="M772" t="n">
+        <v>-3.5021865</v>
+      </c>
+      <c r="N772" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -42721,6 +45067,9 @@
         <v>9.149999999999636</v>
       </c>
       <c r="M773" t="n">
+        <v>8.398632499999636</v>
+      </c>
+      <c r="N773" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -42776,6 +45125,9 @@
         <v>16.09999999999991</v>
       </c>
       <c r="M774" t="n">
+        <v>15.34410199999991</v>
+      </c>
+      <c r="N774" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -42831,6 +45183,9 @@
         <v>-1.050000000000182</v>
       </c>
       <c r="M775" t="n">
+        <v>-1.805982500000182</v>
+      </c>
+      <c r="N775" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -42845,7 +45200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42861,25 +45216,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>rq_sum</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>count</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>part</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>total_percent</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>average_percent</t>
         </is>
@@ -42892,18 +45252,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>-32.18029700000127</v>
+      </c>
+      <c r="C2" t="n">
         <v>10.89999999999873</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>56</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>0.1946428571428344</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>0.39</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -42914,18 +45277,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>-12.4501179999995</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.2000000000004964</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>48</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.004166666666677009</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.02000000000000005</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42936,18 +45302,21 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-2.529704399999909</v>
+      </c>
+      <c r="C4" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>46</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-0.01304347826086759</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.38</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -42958,18 +45327,21 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>-5.457801100000101</v>
+      </c>
+      <c r="C5" t="n">
         <v>-2.3900000000001</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>42</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>-0.0569047619047643</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-0.8500000000000001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -42980,18 +45352,21 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>3.163395999999886</v>
+      </c>
+      <c r="C6" t="n">
         <v>8.499999999999886</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>0.2073170731707289</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1.68</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -43002,18 +45377,21 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>1.001122199999989</v>
+      </c>
+      <c r="C7" t="n">
         <v>2.339999999999989</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>0.05707317073170706</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1.86</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -43024,18 +45402,21 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>9.14439999999982</v>
+      </c>
+      <c r="C8" t="n">
         <v>23.19999999999982</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>0.5948717948717903</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.68</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -43046,18 +45427,21 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>-3.793637000000032</v>
+      </c>
+      <c r="C9" t="n">
         <v>-2.480000000000032</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-0.06358974358974442</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-1.9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -43068,18 +45452,21 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>-3.47818420000012</v>
+      </c>
+      <c r="C10" t="n">
         <v>-1.18000000000012</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>39</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-0.03025641025641334</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-0.5200000000000001</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -43090,18 +45477,21 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>-1.160664790000009</v>
+      </c>
+      <c r="C11" t="n">
         <v>-0.9610000000000092</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>38</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-0.02528947368421077</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>-4.69</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -43112,18 +45502,21 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>-1.592628400000007</v>
+      </c>
+      <c r="C12" t="n">
         <v>-1.000000000000007</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>38</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-0.0263157894736844</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-1.6</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -43134,18 +45527,21 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0.5750307000000325</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.050000000000033</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>37</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>0.02837837837837926</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>2.09</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -43156,18 +45552,21 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>-6.415824999999887</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.123545700920658e-13</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>37</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>3.036610002488266e-15</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.03000000000000014</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43178,18 +45577,21 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>-0.001014803999999997</v>
+      </c>
+      <c r="C15" t="n">
         <v>-7.999999999999674e-05</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>37</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-2.162162162162074e-06</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>5.551115123125783e-17</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43200,18 +45602,21 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>-55.16976</v>
+      </c>
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>35</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0.1142857142857143</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>0.04000000000000009</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -43222,18 +45627,21 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>-0.3275270000000099</v>
+      </c>
+      <c r="C17" t="n">
         <v>0.97999999999999</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>35</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>0.02799999999999971</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>0.6900000000000002</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -43244,18 +45652,21 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>-1.608833199999944</v>
+      </c>
+      <c r="C18" t="n">
         <v>-0.7799999999999443</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>33</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-0.02363636363636195</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -43266,18 +45677,21 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0.03851477999999812</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.1219999999999981</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>27</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>0.004518518518518449</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>1.01</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -43288,18 +45702,21 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>1.046977399999996</v>
+      </c>
+      <c r="C20" t="n">
         <v>1.339999999999996</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>20</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0.06699999999999981</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>2.33</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -43310,18 +45727,21 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>2.784377899999988</v>
+      </c>
+      <c r="C21" t="n">
         <v>3.449999999999989</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>17</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>0.2029411764705876</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>2.28</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -43332,19 +45752,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.036</v>
+        <v>-0.4239826800000024</v>
       </c>
       <c r="C22" t="n">
+        <v>-0.3160000000000024</v>
+      </c>
+      <c r="D22" t="n">
         <v>15</v>
       </c>
-      <c r="D22" t="n">
-        <v>1.469066666666667</v>
-      </c>
       <c r="E22" t="n">
-        <v>64.37</v>
+        <v>-0.02106666666666683</v>
       </c>
       <c r="F22" t="n">
-        <v>4.29</v>
+        <v>-0.97</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="23">
@@ -43354,18 +45777,21 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>-0.0715797810000114</v>
+      </c>
+      <c r="C23" t="n">
         <v>-0.04550000000001142</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>9</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-0.005055555555556824</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.6900000000000001</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -43381,11 +45807,18 @@
       <c r="C24" t="n">
         <v>0</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>5</v>
+      </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
